--- a/BackTest/2019-11-02 BackTest REP.xlsx
+++ b/BackTest/2019-11-02 BackTest REP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>90</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L12" t="n">
         <v>10546</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>130</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L13" t="n">
         <v>10545</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>140</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L14" t="n">
         <v>10545</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>150</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>10545</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>170</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L16" t="n">
         <v>10543</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>190</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L17" t="n">
         <v>10543</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>190</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L18" t="n">
         <v>10547</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>240</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>44.44444444444444</v>
+      </c>
       <c r="L19" t="n">
         <v>10555</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>290</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>80</v>
+      </c>
       <c r="L20" t="n">
         <v>10568</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>290</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>80</v>
+      </c>
       <c r="L21" t="n">
         <v>10584</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>290</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>75</v>
+      </c>
       <c r="L22" t="n">
         <v>10600</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>290</v>
       </c>
       <c r="K23" t="n">
-        <v>37.93103448275862</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>10612</v>
@@ -1466,7 +1488,7 @@
         <v>290</v>
       </c>
       <c r="K24" t="n">
-        <v>37.93103448275862</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L24" t="n">
         <v>10623</v>
@@ -1515,7 +1537,7 @@
         <v>290</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71428571428572</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>10633</v>
@@ -1564,7 +1586,7 @@
         <v>290</v>
       </c>
       <c r="K26" t="n">
-        <v>35.71428571428572</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>10645</v>
@@ -1613,7 +1635,7 @@
         <v>290</v>
       </c>
       <c r="K27" t="n">
-        <v>35.71428571428572</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>10655</v>
@@ -1662,7 +1684,7 @@
         <v>290</v>
       </c>
       <c r="K28" t="n">
-        <v>58.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>10665</v>
@@ -1710,9 +1732,7 @@
       <c r="J29" t="n">
         <v>290</v>
       </c>
-      <c r="K29" t="n">
-        <v>56.52173913043478</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>10670</v>
       </c>
@@ -1759,9 +1779,7 @@
       <c r="J30" t="n">
         <v>290</v>
       </c>
-      <c r="K30" t="n">
-        <v>56.52173913043478</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>10670</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>80.95238095238095</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>10671</v>
@@ -1860,7 +1878,7 @@
         <v>310</v>
       </c>
       <c r="K32" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>10673</v>
@@ -1911,7 +1929,7 @@
         <v>330</v>
       </c>
       <c r="K33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>10677</v>
@@ -1962,7 +1980,7 @@
         <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L34" t="n">
         <v>10680</v>
@@ -2013,7 +2031,7 @@
         <v>340</v>
       </c>
       <c r="K35" t="n">
-        <v>68.42105263157895</v>
+        <v>60</v>
       </c>
       <c r="L35" t="n">
         <v>10683</v>
@@ -2064,7 +2082,7 @@
         <v>340</v>
       </c>
       <c r="K36" t="n">
-        <v>88.23529411764706</v>
+        <v>60</v>
       </c>
       <c r="L36" t="n">
         <v>10686</v>
@@ -2115,7 +2133,7 @@
         <v>340</v>
       </c>
       <c r="K37" t="n">
-        <v>86.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L37" t="n">
         <v>10689</v>
@@ -2166,7 +2184,7 @@
         <v>340</v>
       </c>
       <c r="K38" t="n">
-        <v>86.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
         <v>10692</v>
@@ -2217,7 +2235,7 @@
         <v>350</v>
       </c>
       <c r="K39" t="n">
-        <v>81.81818181818183</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>10696</v>
@@ -2268,7 +2286,7 @@
         <v>380</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>10697</v>
@@ -2319,7 +2337,7 @@
         <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L41" t="n">
         <v>10699</v>
@@ -2370,7 +2388,7 @@
         <v>420</v>
       </c>
       <c r="K42" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>10698</v>
@@ -2421,7 +2439,7 @@
         <v>440</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>10697</v>
@@ -2472,7 +2490,7 @@
         <v>440</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>10697</v>
@@ -2523,7 +2541,7 @@
         <v>440</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>10697</v>
@@ -2574,7 +2592,7 @@
         <v>440</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>10697</v>
@@ -2625,7 +2643,7 @@
         <v>450</v>
       </c>
       <c r="K47" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L47" t="n">
         <v>10698</v>
@@ -2676,7 +2694,7 @@
         <v>460</v>
       </c>
       <c r="K48" t="n">
-        <v>17.64705882352941</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>10698</v>
@@ -2727,7 +2745,7 @@
         <v>520</v>
       </c>
       <c r="K49" t="n">
-        <v>-13.04347826086956</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>10691</v>
@@ -2778,7 +2796,7 @@
         <v>550</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L50" t="n">
         <v>10690</v>
@@ -2829,7 +2847,7 @@
         <v>550</v>
       </c>
       <c r="K51" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L51" t="n">
         <v>10687</v>
@@ -2880,7 +2898,7 @@
         <v>590</v>
       </c>
       <c r="K52" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L52" t="n">
         <v>10690</v>
@@ -2931,7 +2949,7 @@
         <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>3.703703703703703</v>
+        <v>12.5</v>
       </c>
       <c r="L53" t="n">
         <v>10692</v>
@@ -2982,7 +3000,7 @@
         <v>610</v>
       </c>
       <c r="K54" t="n">
-        <v>3.703703703703703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L54" t="n">
         <v>10693</v>
@@ -3033,7 +3051,7 @@
         <v>610</v>
       </c>
       <c r="K55" t="n">
-        <v>3.703703703703703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L55" t="n">
         <v>10694</v>
@@ -3084,7 +3102,7 @@
         <v>620</v>
       </c>
       <c r="K56" t="n">
-        <v>7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L56" t="n">
         <v>10696</v>
@@ -3135,7 +3153,7 @@
         <v>630</v>
       </c>
       <c r="K57" t="n">
-        <v>3.448275862068965</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L57" t="n">
         <v>10696</v>
@@ -3186,7 +3204,7 @@
         <v>640</v>
       </c>
       <c r="K58" t="n">
-        <v>6.666666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>10698</v>
@@ -3237,7 +3255,7 @@
         <v>650</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L59" t="n">
         <v>10705</v>
@@ -3288,7 +3306,7 @@
         <v>650</v>
       </c>
       <c r="K60" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L60" t="n">
         <v>10709</v>
@@ -3339,7 +3357,7 @@
         <v>660</v>
       </c>
       <c r="K61" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>10714</v>
@@ -3390,7 +3408,7 @@
         <v>660</v>
       </c>
       <c r="K62" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>10715</v>
@@ -3441,7 +3459,7 @@
         <v>690</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L63" t="n">
         <v>10718</v>
@@ -3492,7 +3510,7 @@
         <v>690</v>
       </c>
       <c r="K64" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
         <v>10722</v>
@@ -3543,7 +3561,7 @@
         <v>690</v>
       </c>
       <c r="K65" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L65" t="n">
         <v>10726</v>
@@ -3594,7 +3612,7 @@
         <v>690</v>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>10729</v>
@@ -3645,7 +3663,7 @@
         <v>710</v>
       </c>
       <c r="K67" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L67" t="n">
         <v>10731</v>
@@ -3696,7 +3714,7 @@
         <v>710</v>
       </c>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>10732</v>
@@ -3747,7 +3765,7 @@
         <v>740</v>
       </c>
       <c r="K69" t="n">
-        <v>27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>10731</v>
@@ -3798,7 +3816,7 @@
         <v>740</v>
       </c>
       <c r="K70" t="n">
-        <v>15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L70" t="n">
         <v>10730</v>
@@ -3849,7 +3867,7 @@
         <v>750</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>10727</v>
@@ -3900,7 +3918,7 @@
         <v>750</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L72" t="n">
         <v>10724</v>
@@ -3951,7 +3969,7 @@
         <v>750</v>
       </c>
       <c r="K73" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L73" t="n">
         <v>10718</v>
@@ -4002,7 +4020,7 @@
         <v>780</v>
       </c>
       <c r="K74" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>10709</v>
@@ -4053,7 +4071,7 @@
         <v>780</v>
       </c>
       <c r="K75" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>10700</v>
@@ -4104,7 +4122,7 @@
         <v>800</v>
       </c>
       <c r="K76" t="n">
-        <v>-44.44444444444444</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>10689</v>
@@ -4155,7 +4173,7 @@
         <v>880</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L77" t="n">
         <v>10688</v>
@@ -4206,7 +4224,7 @@
         <v>890</v>
       </c>
       <c r="K78" t="n">
-        <v>-4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L78" t="n">
         <v>10686</v>
@@ -4257,7 +4275,7 @@
         <v>930</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L79" t="n">
         <v>10683</v>
@@ -4308,7 +4326,7 @@
         <v>940</v>
       </c>
       <c r="K80" t="n">
-        <v>-17.24137931034483</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L80" t="n">
         <v>10679</v>
@@ -4359,7 +4377,7 @@
         <v>950</v>
       </c>
       <c r="K81" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>10675</v>
@@ -4410,7 +4428,7 @@
         <v>950</v>
       </c>
       <c r="K82" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>10671</v>
@@ -4461,7 +4479,7 @@
         <v>990</v>
       </c>
       <c r="K83" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>10671</v>
@@ -4512,7 +4530,7 @@
         <v>1010</v>
       </c>
       <c r="K84" t="n">
-        <v>-25</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L84" t="n">
         <v>10672</v>
@@ -4563,7 +4581,7 @@
         <v>1040</v>
       </c>
       <c r="K85" t="n">
-        <v>-31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>10670</v>
@@ -4614,7 +4632,7 @@
         <v>1040</v>
       </c>
       <c r="K86" t="n">
-        <v>-31.42857142857143</v>
+        <v>-50</v>
       </c>
       <c r="L86" t="n">
         <v>10670</v>
@@ -4665,7 +4683,7 @@
         <v>1040</v>
       </c>
       <c r="K87" t="n">
-        <v>-27.27272727272727</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L87" t="n">
         <v>10662</v>
@@ -4716,7 +4734,7 @@
         <v>1060</v>
       </c>
       <c r="K88" t="n">
-        <v>-31.42857142857143</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L88" t="n">
         <v>10653</v>
@@ -4767,7 +4785,7 @@
         <v>1090</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L89" t="n">
         <v>10651</v>
@@ -4818,7 +4836,7 @@
         <v>1090</v>
       </c>
       <c r="K90" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>10650</v>
@@ -4869,7 +4887,7 @@
         <v>1140</v>
       </c>
       <c r="K91" t="n">
-        <v>2.564102564102564</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L91" t="n">
         <v>10655</v>
@@ -4971,7 +4989,7 @@
         <v>1220</v>
       </c>
       <c r="K93" t="n">
-        <v>-14.8936170212766</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L93" t="n">
         <v>10652</v>
@@ -5022,7 +5040,7 @@
         <v>1230</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.666666666666667</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L94" t="n">
         <v>10648</v>
@@ -5073,7 +5091,7 @@
         <v>1230</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.666666666666667</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L95" t="n">
         <v>10647</v>
@@ -5124,7 +5142,7 @@
         <v>1270</v>
       </c>
       <c r="K96" t="n">
-        <v>6.382978723404255</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L96" t="n">
         <v>10650</v>
@@ -5175,7 +5193,7 @@
         <v>1270</v>
       </c>
       <c r="K97" t="n">
-        <v>-12.82051282051282</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L97" t="n">
         <v>10653</v>
@@ -5226,7 +5244,7 @@
         <v>1290</v>
       </c>
       <c r="K98" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>10660</v>
@@ -5277,7 +5295,7 @@
         <v>1290</v>
       </c>
       <c r="K99" t="n">
-        <v>5.555555555555555</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>10664</v>
@@ -5328,7 +5346,7 @@
         <v>1320</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L100" t="n">
         <v>10665</v>
@@ -5379,7 +5397,7 @@
         <v>1320</v>
       </c>
       <c r="K101" t="n">
-        <v>2.702702702702703</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L101" t="n">
         <v>10661</v>
@@ -5430,7 +5448,7 @@
         <v>1380</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.62790697674419</v>
+        <v>-12.5</v>
       </c>
       <c r="L102" t="n">
         <v>10652</v>
@@ -5481,7 +5499,7 @@
         <v>1440</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>10656</v>
@@ -5532,7 +5550,7 @@
         <v>1460</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.666666666666667</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L104" t="n">
         <v>10657</v>
@@ -5583,7 +5601,7 @@
         <v>1460</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L105" t="n">
         <v>10658</v>
@@ -5634,7 +5652,7 @@
         <v>1470</v>
       </c>
       <c r="K106" t="n">
-        <v>2.325581395348837</v>
+        <v>-10</v>
       </c>
       <c r="L106" t="n">
         <v>10656</v>
@@ -5685,7 +5703,7 @@
         <v>1480</v>
       </c>
       <c r="K107" t="n">
-        <v>4.545454545454546</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L107" t="n">
         <v>10655</v>
@@ -5736,7 +5754,7 @@
         <v>1480</v>
       </c>
       <c r="K108" t="n">
-        <v>9.523809523809524</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L108" t="n">
         <v>10652</v>
@@ -5787,7 +5805,7 @@
         <v>1490</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L109" t="n">
         <v>10648</v>
@@ -5838,7 +5856,7 @@
         <v>1490</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L110" t="n">
         <v>10647</v>
@@ -5889,7 +5907,7 @@
         <v>1520</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.05263157894737</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L111" t="n">
         <v>10643</v>
@@ -5940,7 +5958,7 @@
         <v>1550</v>
       </c>
       <c r="K112" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L112" t="n">
         <v>10648</v>
@@ -5991,7 +6009,7 @@
         <v>1580</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L113" t="n">
         <v>10644</v>
@@ -6042,7 +6060,7 @@
         <v>1640</v>
       </c>
       <c r="K114" t="n">
-        <v>12.19512195121951</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L114" t="n">
         <v>10648</v>
@@ -6093,7 +6111,7 @@
         <v>1670</v>
       </c>
       <c r="K115" t="n">
-        <v>4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>10649</v>
@@ -6144,7 +6162,7 @@
         <v>1690</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L116" t="n">
         <v>10651</v>
@@ -6195,7 +6213,7 @@
         <v>1690</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L117" t="n">
         <v>10652</v>
@@ -6246,7 +6264,7 @@
         <v>1690</v>
       </c>
       <c r="K118" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="L118" t="n">
         <v>10653</v>
@@ -6297,7 +6315,7 @@
         <v>1750</v>
       </c>
       <c r="K119" t="n">
-        <v>-17.39130434782609</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L119" t="n">
         <v>10649</v>
@@ -6348,7 +6366,7 @@
         <v>1760</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>10646</v>
@@ -6399,7 +6417,7 @@
         <v>1790</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>10649</v>
@@ -6450,7 +6468,7 @@
         <v>1810</v>
       </c>
       <c r="K122" t="n">
-        <v>16.27906976744186</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L122" t="n">
         <v>10651</v>
@@ -6501,7 +6519,7 @@
         <v>1820</v>
       </c>
       <c r="K123" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>10657</v>
@@ -6552,7 +6570,7 @@
         <v>1860</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L124" t="n">
         <v>10653</v>
@@ -6603,7 +6621,7 @@
         <v>1890</v>
       </c>
       <c r="K125" t="n">
-        <v>6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>10655</v>
@@ -6654,7 +6672,7 @@
         <v>1890</v>
       </c>
       <c r="K126" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>10655</v>
@@ -6705,7 +6723,7 @@
         <v>1890</v>
       </c>
       <c r="K127" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>10655</v>
@@ -6756,7 +6774,7 @@
         <v>1900</v>
       </c>
       <c r="K128" t="n">
-        <v>4.761904761904762</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>10656</v>
@@ -6807,7 +6825,7 @@
         <v>1900</v>
       </c>
       <c r="K129" t="n">
-        <v>7.317073170731707</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L129" t="n">
         <v>10663</v>
@@ -6858,7 +6876,7 @@
         <v>1900</v>
       </c>
       <c r="K130" t="n">
-        <v>7.317073170731707</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L130" t="n">
         <v>10669</v>
@@ -6909,7 +6927,7 @@
         <v>1900</v>
       </c>
       <c r="K131" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L131" t="n">
         <v>10672</v>
@@ -6960,7 +6978,7 @@
         <v>1900</v>
       </c>
       <c r="K132" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>10673</v>
@@ -7011,7 +7029,7 @@
         <v>1900</v>
       </c>
       <c r="K133" t="n">
-        <v>18.75</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>10673</v>
@@ -7062,7 +7080,7 @@
         <v>1900</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>10677</v>
@@ -7113,7 +7131,7 @@
         <v>1940</v>
       </c>
       <c r="K135" t="n">
-        <v>-3.703703703703703</v>
+        <v>-60</v>
       </c>
       <c r="L135" t="n">
         <v>10674</v>
@@ -7164,7 +7182,7 @@
         <v>1980</v>
       </c>
       <c r="K136" t="n">
-        <v>3.448275862068965</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>10675</v>
@@ -7215,7 +7233,7 @@
         <v>1980</v>
       </c>
       <c r="K137" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>10676</v>
@@ -7266,7 +7284,7 @@
         <v>1990</v>
       </c>
       <c r="K138" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L138" t="n">
         <v>10677</v>
@@ -7317,7 +7335,7 @@
         <v>1990</v>
       </c>
       <c r="K139" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L139" t="n">
         <v>10678</v>
@@ -7368,7 +7386,7 @@
         <v>2000</v>
       </c>
       <c r="K140" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>10680</v>
@@ -7419,7 +7437,7 @@
         <v>2000</v>
       </c>
       <c r="K141" t="n">
-        <v>23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>10682</v>
@@ -7470,7 +7488,7 @@
         <v>2050</v>
       </c>
       <c r="K142" t="n">
-        <v>33.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L142" t="n">
         <v>10689</v>
@@ -7521,7 +7539,7 @@
         <v>2050</v>
       </c>
       <c r="K143" t="n">
-        <v>30.43478260869566</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L143" t="n">
         <v>10696</v>
@@ -7572,7 +7590,7 @@
         <v>2050</v>
       </c>
       <c r="K144" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>10703</v>
@@ -7623,7 +7641,7 @@
         <v>2060</v>
       </c>
       <c r="K145" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>10715</v>
@@ -7674,7 +7692,7 @@
         <v>2060</v>
       </c>
       <c r="K146" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>10723</v>
@@ -7725,7 +7743,7 @@
         <v>2060</v>
       </c>
       <c r="K147" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>10731</v>
@@ -7776,7 +7794,7 @@
         <v>2070</v>
       </c>
       <c r="K148" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>10739</v>
@@ -7827,7 +7845,7 @@
         <v>2080</v>
       </c>
       <c r="K149" t="n">
-        <v>44.44444444444444</v>
+        <v>75</v>
       </c>
       <c r="L149" t="n">
         <v>10746</v>
@@ -7878,7 +7896,7 @@
         <v>2090</v>
       </c>
       <c r="K150" t="n">
-        <v>47.36842105263158</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L150" t="n">
         <v>10753</v>
@@ -7929,7 +7947,7 @@
         <v>2120</v>
       </c>
       <c r="K151" t="n">
-        <v>54.54545454545454</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L151" t="n">
         <v>10763</v>
@@ -7980,7 +7998,7 @@
         <v>2130</v>
       </c>
       <c r="K152" t="n">
-        <v>47.82608695652174</v>
+        <v>50</v>
       </c>
       <c r="L152" t="n">
         <v>10767</v>
@@ -8031,7 +8049,7 @@
         <v>2140</v>
       </c>
       <c r="K153" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L153" t="n">
         <v>10772</v>
@@ -8133,7 +8151,7 @@
         <v>2160</v>
       </c>
       <c r="K155" t="n">
-        <v>81.81818181818183</v>
+        <v>60</v>
       </c>
       <c r="L155" t="n">
         <v>10783</v>
@@ -8184,7 +8202,7 @@
         <v>2160</v>
       </c>
       <c r="K156" t="n">
-        <v>77.77777777777779</v>
+        <v>60</v>
       </c>
       <c r="L156" t="n">
         <v>10789</v>
@@ -8235,7 +8253,7 @@
         <v>2170</v>
       </c>
       <c r="K157" t="n">
-        <v>78.94736842105263</v>
+        <v>60</v>
       </c>
       <c r="L157" t="n">
         <v>10796</v>
@@ -8286,7 +8304,7 @@
         <v>2230</v>
       </c>
       <c r="K158" t="n">
-        <v>83.33333333333334</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L158" t="n">
         <v>10808</v>
@@ -8337,7 +8355,7 @@
         <v>2240</v>
       </c>
       <c r="K159" t="n">
-        <v>84</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L159" t="n">
         <v>10822</v>
@@ -8388,7 +8406,7 @@
         <v>2250</v>
       </c>
       <c r="K160" t="n">
-        <v>76</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L160" t="n">
         <v>10834</v>
@@ -8439,7 +8457,7 @@
         <v>2250</v>
       </c>
       <c r="K161" t="n">
-        <v>76</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L161" t="n">
         <v>10843</v>
@@ -8490,7 +8508,7 @@
         <v>2270</v>
       </c>
       <c r="K162" t="n">
-        <v>72.72727272727273</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L162" t="n">
         <v>10855</v>
@@ -8541,7 +8559,7 @@
         <v>2290</v>
       </c>
       <c r="K163" t="n">
-        <v>58.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L163" t="n">
         <v>10864</v>
@@ -8592,7 +8610,7 @@
         <v>2290</v>
       </c>
       <c r="K164" t="n">
-        <v>58.33333333333334</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L164" t="n">
         <v>10873</v>
@@ -8643,7 +8661,7 @@
         <v>2290</v>
       </c>
       <c r="K165" t="n">
-        <v>56.52173913043478</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L165" t="n">
         <v>10880</v>
@@ -8694,7 +8712,7 @@
         <v>2330</v>
       </c>
       <c r="K166" t="n">
-        <v>33.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L166" t="n">
         <v>10883</v>
@@ -8745,7 +8763,7 @@
         <v>2370</v>
       </c>
       <c r="K167" t="n">
-        <v>16.12903225806452</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L167" t="n">
         <v>10881</v>
@@ -8796,7 +8814,7 @@
         <v>2410</v>
       </c>
       <c r="K168" t="n">
-        <v>23.52941176470588</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L168" t="n">
         <v>10877</v>
@@ -8847,7 +8865,7 @@
         <v>2440</v>
       </c>
       <c r="K169" t="n">
-        <v>33.33333333333333</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L169" t="n">
         <v>10875</v>
@@ -8898,7 +8916,7 @@
         <v>2450</v>
       </c>
       <c r="K170" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>10875</v>
@@ -8949,7 +8967,7 @@
         <v>2470</v>
       </c>
       <c r="K171" t="n">
-        <v>31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>10877</v>
@@ -9000,7 +9018,7 @@
         <v>2520</v>
       </c>
       <c r="K172" t="n">
-        <v>17.94871794871795</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L172" t="n">
         <v>10872</v>
@@ -9051,7 +9069,7 @@
         <v>2520</v>
       </c>
       <c r="K173" t="n">
-        <v>15.78947368421053</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L173" t="n">
         <v>10869</v>
@@ -9102,7 +9120,7 @@
         <v>2570</v>
       </c>
       <c r="K174" t="n">
-        <v>25.58139534883721</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L174" t="n">
         <v>10871</v>
@@ -9153,7 +9171,7 @@
         <v>2580</v>
       </c>
       <c r="K175" t="n">
-        <v>19.04761904761905</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>10872</v>
@@ -9204,7 +9222,7 @@
         <v>2600</v>
       </c>
       <c r="K176" t="n">
-        <v>22.72727272727273</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L176" t="n">
         <v>10879</v>
@@ -9255,7 +9273,7 @@
         <v>2600</v>
       </c>
       <c r="K177" t="n">
-        <v>20.93023255813954</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L177" t="n">
         <v>10890</v>
@@ -9306,7 +9324,7 @@
         <v>2610</v>
       </c>
       <c r="K178" t="n">
-        <v>10.52631578947368</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L178" t="n">
         <v>10898</v>
@@ -9357,7 +9375,7 @@
         <v>2640</v>
       </c>
       <c r="K179" t="n">
-        <v>15</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L179" t="n">
         <v>10906</v>
@@ -9408,7 +9426,7 @@
         <v>2640</v>
       </c>
       <c r="K180" t="n">
-        <v>17.94871794871795</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L180" t="n">
         <v>10913</v>
@@ -9459,7 +9477,7 @@
         <v>2680</v>
       </c>
       <c r="K181" t="n">
-        <v>25.58139534883721</v>
+        <v>87.5</v>
       </c>
       <c r="L181" t="n">
         <v>10922</v>
@@ -9510,7 +9528,7 @@
         <v>2680</v>
       </c>
       <c r="K182" t="n">
-        <v>21.95121951219512</v>
+        <v>87.5</v>
       </c>
       <c r="L182" t="n">
         <v>10936</v>
@@ -9561,7 +9579,7 @@
         <v>2710</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333333</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L183" t="n">
         <v>10953</v>
@@ -9612,7 +9630,7 @@
         <v>2730</v>
       </c>
       <c r="K184" t="n">
-        <v>27.27272727272727</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>10963</v>
@@ -9663,7 +9681,7 @@
         <v>2730</v>
       </c>
       <c r="K185" t="n">
-        <v>27.27272727272727</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L185" t="n">
         <v>10974</v>
@@ -9714,7 +9732,7 @@
         <v>2740</v>
       </c>
       <c r="K186" t="n">
-        <v>36.58536585365854</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L186" t="n">
         <v>10982</v>
@@ -9765,7 +9783,7 @@
         <v>2770</v>
       </c>
       <c r="K187" t="n">
-        <v>55.00000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="L187" t="n">
         <v>10993</v>
@@ -9816,7 +9834,7 @@
         <v>2790</v>
       </c>
       <c r="K188" t="n">
-        <v>42.10526315789473</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>11001</v>
@@ -9867,7 +9885,7 @@
         <v>2810</v>
       </c>
       <c r="K189" t="n">
-        <v>40.54054054054054</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L189" t="n">
         <v>11008</v>
@@ -9918,7 +9936,7 @@
         <v>2860</v>
       </c>
       <c r="K190" t="n">
-        <v>46.34146341463415</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L190" t="n">
         <v>11020</v>
@@ -9969,7 +9987,7 @@
         <v>2890</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333333</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L191" t="n">
         <v>11025</v>
@@ -10020,7 +10038,7 @@
         <v>2900</v>
       </c>
       <c r="K192" t="n">
-        <v>47.36842105263158</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L192" t="n">
         <v>11029</v>
@@ -10071,7 +10089,7 @@
         <v>2920</v>
       </c>
       <c r="K193" t="n">
-        <v>50</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L193" t="n">
         <v>11032</v>
@@ -10122,7 +10140,7 @@
         <v>2930</v>
       </c>
       <c r="K194" t="n">
-        <v>38.88888888888889</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>11036</v>
@@ -10173,7 +10191,7 @@
         <v>2940</v>
       </c>
       <c r="K195" t="n">
-        <v>38.88888888888889</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>11039</v>
@@ -10224,7 +10242,7 @@
         <v>2940</v>
       </c>
       <c r="K196" t="n">
-        <v>35.29411764705883</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L196" t="n">
         <v>11043</v>
@@ -10275,7 +10293,7 @@
         <v>2940</v>
       </c>
       <c r="K197" t="n">
-        <v>35.29411764705883</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
         <v>11044</v>
@@ -10326,7 +10344,7 @@
         <v>2940</v>
       </c>
       <c r="K198" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L198" t="n">
         <v>11047</v>
@@ -10381,7 +10399,7 @@
         <v>2950</v>
       </c>
       <c r="K199" t="n">
-        <v>29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>11049</v>
@@ -10440,7 +10458,7 @@
         <v>2960</v>
       </c>
       <c r="K200" t="n">
-        <v>31.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>11047</v>
@@ -10499,7 +10517,7 @@
         <v>2970</v>
       </c>
       <c r="K201" t="n">
-        <v>24.13793103448276</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>11049</v>
@@ -10558,7 +10576,7 @@
         <v>2970</v>
       </c>
       <c r="K202" t="n">
-        <v>24.13793103448276</v>
+        <v>20</v>
       </c>
       <c r="L202" t="n">
         <v>11052</v>
@@ -10617,7 +10635,7 @@
         <v>3000</v>
       </c>
       <c r="K203" t="n">
-        <v>24.13793103448276</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L203" t="n">
         <v>11056</v>
@@ -10676,7 +10694,7 @@
         <v>3020</v>
       </c>
       <c r="K204" t="n">
-        <v>37.93103448275862</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>11063</v>
@@ -10735,7 +10753,7 @@
         <v>3020</v>
       </c>
       <c r="K205" t="n">
-        <v>37.93103448275862</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>11071</v>
@@ -10794,7 +10812,7 @@
         <v>3050</v>
       </c>
       <c r="K206" t="n">
-        <v>48.38709677419355</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>11082</v>
@@ -10853,7 +10871,7 @@
         <v>3050</v>
       </c>
       <c r="K207" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>11093</v>
@@ -10912,7 +10930,7 @@
         <v>3080</v>
       </c>
       <c r="K208" t="n">
-        <v>58.62068965517241</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>11107</v>
@@ -10963,7 +10981,7 @@
         <v>3110</v>
       </c>
       <c r="K209" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L209" t="n">
         <v>11117</v>
@@ -11014,7 +11032,7 @@
         <v>3160</v>
       </c>
       <c r="K210" t="n">
-        <v>40</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L210" t="n">
         <v>11131</v>
@@ -11065,7 +11083,7 @@
         <v>3210</v>
       </c>
       <c r="K211" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="L211" t="n">
         <v>11149</v>
@@ -11116,7 +11134,7 @@
         <v>3310</v>
       </c>
       <c r="K212" t="n">
-        <v>75.60975609756098</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L212" t="n">
         <v>11177</v>
@@ -11167,7 +11185,7 @@
         <v>3330</v>
       </c>
       <c r="K213" t="n">
-        <v>65.85365853658537</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L213" t="n">
         <v>11200</v>
@@ -11218,7 +11236,7 @@
         <v>3400</v>
       </c>
       <c r="K214" t="n">
-        <v>74.46808510638297</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="L214" t="n">
         <v>11228</v>
@@ -11269,7 +11287,7 @@
         <v>3480</v>
       </c>
       <c r="K215" t="n">
-        <v>81.48148148148148</v>
+        <v>76.74418604651163</v>
       </c>
       <c r="L215" t="n">
         <v>11264</v>
@@ -11320,7 +11338,7 @@
         <v>3500</v>
       </c>
       <c r="K216" t="n">
-        <v>82.14285714285714</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L216" t="n">
         <v>11299</v>
@@ -11371,7 +11389,7 @@
         <v>3510</v>
       </c>
       <c r="K217" t="n">
-        <v>78.94736842105263</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L217" t="n">
         <v>11333</v>
@@ -11422,7 +11440,7 @@
         <v>3540</v>
       </c>
       <c r="K218" t="n">
-        <v>80</v>
+        <v>86.04651162790698</v>
       </c>
       <c r="L218" t="n">
         <v>11367</v>
@@ -11473,7 +11491,7 @@
         <v>3650</v>
       </c>
       <c r="K219" t="n">
-        <v>82.85714285714286</v>
+        <v>87.75510204081633</v>
       </c>
       <c r="L219" t="n">
         <v>11415</v>
@@ -11524,7 +11542,7 @@
         <v>3860</v>
       </c>
       <c r="K220" t="n">
-        <v>86.66666666666667</v>
+        <v>90.76923076923077</v>
       </c>
       <c r="L220" t="n">
         <v>11479</v>
@@ -11575,7 +11593,7 @@
         <v>3940</v>
       </c>
       <c r="K221" t="n">
-        <v>87.62886597938144</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L221" t="n">
         <v>11546</v>
@@ -11626,7 +11644,7 @@
         <v>3960</v>
       </c>
       <c r="K222" t="n">
-        <v>87.87878787878788</v>
+        <v>96.82539682539682</v>
       </c>
       <c r="L222" t="n">
         <v>11605</v>
@@ -11677,7 +11695,7 @@
         <v>3970</v>
       </c>
       <c r="K223" t="n">
-        <v>87.62886597938144</v>
+        <v>96.49122807017544</v>
       </c>
       <c r="L223" t="n">
         <v>11667</v>
@@ -11728,7 +11746,7 @@
         <v>4060</v>
       </c>
       <c r="K224" t="n">
-        <v>71.15384615384616</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L224" t="n">
         <v>11713</v>
@@ -11779,7 +11797,7 @@
         <v>4090</v>
       </c>
       <c r="K225" t="n">
-        <v>71.96261682242991</v>
+        <v>66.10169491525424</v>
       </c>
       <c r="L225" t="n">
         <v>11754</v>
@@ -11830,7 +11848,7 @@
         <v>4170</v>
       </c>
       <c r="K226" t="n">
-        <v>58.92857142857143</v>
+        <v>48.48484848484848</v>
       </c>
       <c r="L226" t="n">
         <v>11785</v>
@@ -11881,7 +11899,7 @@
         <v>4200</v>
       </c>
       <c r="K227" t="n">
-        <v>54.78260869565217</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L227" t="n">
         <v>11814</v>
@@ -11932,7 +11950,7 @@
         <v>4200</v>
       </c>
       <c r="K228" t="n">
-        <v>53.57142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L228" t="n">
         <v>11840</v>
@@ -11983,7 +12001,7 @@
         <v>4230</v>
       </c>
       <c r="K229" t="n">
-        <v>53.57142857142857</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L229" t="n">
         <v>11852</v>
@@ -12034,7 +12052,7 @@
         <v>4240</v>
       </c>
       <c r="K230" t="n">
-        <v>50</v>
+        <v>-60</v>
       </c>
       <c r="L230" t="n">
         <v>11842</v>
@@ -12085,7 +12103,7 @@
         <v>4330</v>
       </c>
       <c r="K231" t="n">
-        <v>35.71428571428572</v>
+        <v>-78.37837837837837</v>
       </c>
       <c r="L231" t="n">
         <v>11815</v>
@@ -12136,7 +12154,7 @@
         <v>4380</v>
       </c>
       <c r="K232" t="n">
-        <v>23.36448598130841</v>
+        <v>-85.36585365853658</v>
       </c>
       <c r="L232" t="n">
         <v>11781</v>
@@ -12187,7 +12205,7 @@
         <v>4400</v>
       </c>
       <c r="K233" t="n">
-        <v>23.36448598130841</v>
+        <v>-82.35294117647058</v>
       </c>
       <c r="L233" t="n">
         <v>11744</v>
@@ -12238,7 +12256,7 @@
         <v>4460</v>
       </c>
       <c r="K234" t="n">
-        <v>11.32075471698113</v>
+        <v>-100</v>
       </c>
       <c r="L234" t="n">
         <v>11710</v>
@@ -12289,7 +12307,7 @@
         <v>4480</v>
       </c>
       <c r="K235" t="n">
-        <v>2</v>
+        <v>-100</v>
       </c>
       <c r="L235" t="n">
         <v>11671</v>
@@ -12340,7 +12358,7 @@
         <v>4560</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.547169811320755</v>
+        <v>-100</v>
       </c>
       <c r="L236" t="n">
         <v>11632</v>
@@ -12391,7 +12409,7 @@
         <v>4580</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.672897196261682</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L237" t="n">
         <v>11598</v>
@@ -12442,7 +12460,7 @@
         <v>4600</v>
       </c>
       <c r="K238" t="n">
-        <v>-5.660377358490567</v>
+        <v>-78.37837837837837</v>
       </c>
       <c r="L238" t="n">
         <v>11566</v>
@@ -12493,7 +12511,7 @@
         <v>4610</v>
       </c>
       <c r="K239" t="n">
-        <v>-18.75</v>
+        <v>-78.37837837837837</v>
       </c>
       <c r="L239" t="n">
         <v>11536</v>
@@ -12544,7 +12562,7 @@
         <v>4800</v>
       </c>
       <c r="K240" t="n">
-        <v>-21.27659574468085</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L240" t="n">
         <v>11526</v>
@@ -12595,7 +12613,7 @@
         <v>4800</v>
       </c>
       <c r="K241" t="n">
-        <v>-32.55813953488372</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L241" t="n">
         <v>11525</v>
@@ -12646,7 +12664,7 @@
         <v>4820</v>
       </c>
       <c r="K242" t="n">
-        <v>-32.55813953488372</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L242" t="n">
         <v>11531</v>
@@ -12697,7 +12715,7 @@
         <v>4900</v>
       </c>
       <c r="K243" t="n">
-        <v>-22.58064516129032</v>
+        <v>50</v>
       </c>
       <c r="L243" t="n">
         <v>11547</v>
@@ -12748,7 +12766,7 @@
         <v>4900</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L244" t="n">
         <v>11569</v>
@@ -12799,7 +12817,7 @@
         <v>5000</v>
       </c>
       <c r="K245" t="n">
-        <v>-27.47252747252747</v>
+        <v>50</v>
       </c>
       <c r="L245" t="n">
         <v>11583</v>
@@ -12850,7 +12868,7 @@
         <v>5050</v>
       </c>
       <c r="K246" t="n">
-        <v>-25</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L246" t="n">
         <v>11600</v>
@@ -12901,7 +12919,7 @@
         <v>5080</v>
       </c>
       <c r="K247" t="n">
-        <v>-25</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L247" t="n">
         <v>11612</v>
@@ -12952,7 +12970,7 @@
         <v>5120</v>
       </c>
       <c r="K248" t="n">
-        <v>-28.26086956521739</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L248" t="n">
         <v>11618</v>
@@ -13003,7 +13021,7 @@
         <v>5160</v>
       </c>
       <c r="K249" t="n">
-        <v>-20.43010752688172</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L249" t="n">
         <v>11629</v>
@@ -13054,7 +13072,7 @@
         <v>5220</v>
       </c>
       <c r="K250" t="n">
-        <v>-24.48979591836735</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>11615</v>
@@ -13105,7 +13123,7 @@
         <v>5220</v>
       </c>
       <c r="K251" t="n">
-        <v>-16.85393258426966</v>
+        <v>-40</v>
       </c>
       <c r="L251" t="n">
         <v>11601</v>
@@ -13156,7 +13174,7 @@
         <v>5250</v>
       </c>
       <c r="K252" t="n">
-        <v>-14.94252873563219</v>
+        <v>-77.14285714285715</v>
       </c>
       <c r="L252" t="n">
         <v>11582</v>
@@ -13207,7 +13225,7 @@
         <v>5260</v>
       </c>
       <c r="K253" t="n">
-        <v>-13.95348837209302</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L253" t="n">
         <v>11554</v>
@@ -13258,7 +13276,7 @@
         <v>5280</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.75609756097561</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L254" t="n">
         <v>11524</v>
@@ -13309,7 +13327,7 @@
         <v>5310</v>
       </c>
       <c r="K255" t="n">
-        <v>-10.8433734939759</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L255" t="n">
         <v>11501</v>
@@ -13360,7 +13378,7 @@
         <v>5330</v>
       </c>
       <c r="K256" t="n">
-        <v>1.298701298701299</v>
+        <v>-52</v>
       </c>
       <c r="L256" t="n">
         <v>11485</v>
@@ -13411,7 +13429,7 @@
         <v>5330</v>
       </c>
       <c r="K257" t="n">
-        <v>-1.333333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L257" t="n">
         <v>11472</v>
@@ -13462,7 +13480,7 @@
         <v>5350</v>
       </c>
       <c r="K258" t="n">
-        <v>-1.333333333333333</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L258" t="n">
         <v>11465</v>
@@ -13513,7 +13531,7 @@
         <v>5360</v>
       </c>
       <c r="K259" t="n">
-        <v>1.333333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L259" t="n">
         <v>11455</v>
@@ -13564,7 +13582,7 @@
         <v>5400</v>
       </c>
       <c r="K260" t="n">
-        <v>-36.66666666666666</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L260" t="n">
         <v>11447</v>
@@ -13615,7 +13633,7 @@
         <v>5400</v>
       </c>
       <c r="K261" t="n">
-        <v>-36.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>11439</v>
@@ -13666,7 +13684,7 @@
         <v>5410</v>
       </c>
       <c r="K262" t="n">
-        <v>-38.98305084745763</v>
+        <v>-20</v>
       </c>
       <c r="L262" t="n">
         <v>11435</v>
@@ -13717,7 +13735,7 @@
         <v>5410</v>
       </c>
       <c r="K263" t="n">
-        <v>-60.78431372549019</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L263" t="n">
         <v>11432</v>
@@ -13768,7 +13786,7 @@
         <v>5410</v>
       </c>
       <c r="K264" t="n">
-        <v>-60.78431372549019</v>
+        <v>20</v>
       </c>
       <c r="L264" t="n">
         <v>11431</v>
@@ -13819,7 +13837,7 @@
         <v>5410</v>
       </c>
       <c r="K265" t="n">
-        <v>-51.21951219512195</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>11433</v>
@@ -13870,7 +13888,7 @@
         <v>5440</v>
       </c>
       <c r="K266" t="n">
-        <v>-33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L266" t="n">
         <v>11436</v>
@@ -13921,7 +13939,7 @@
         <v>5470</v>
       </c>
       <c r="K267" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L267" t="n">
         <v>11436</v>
@@ -13972,7 +13990,7 @@
         <v>5480</v>
       </c>
       <c r="K268" t="n">
-        <v>-27.77777777777778</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>11433</v>
@@ -14023,7 +14041,7 @@
         <v>5480</v>
       </c>
       <c r="K269" t="n">
-        <v>-43.75</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>11429</v>
@@ -14074,7 +14092,7 @@
         <v>5540</v>
       </c>
       <c r="K270" t="n">
-        <v>-43.75</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L270" t="n">
         <v>11423</v>
@@ -14125,7 +14143,7 @@
         <v>5550</v>
       </c>
       <c r="K271" t="n">
-        <v>-45.45454545454545</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L271" t="n">
         <v>11416</v>
@@ -14176,7 +14194,7 @@
         <v>5610</v>
       </c>
       <c r="K272" t="n">
-        <v>-50</v>
+        <v>-70</v>
       </c>
       <c r="L272" t="n">
         <v>11402</v>
@@ -14227,7 +14245,7 @@
         <v>5610</v>
       </c>
       <c r="K273" t="n">
-        <v>-48.57142857142857</v>
+        <v>-70</v>
       </c>
       <c r="L273" t="n">
         <v>11388</v>
@@ -14278,7 +14296,7 @@
         <v>5640</v>
       </c>
       <c r="K274" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L274" t="n">
         <v>11377</v>
@@ -14329,7 +14347,7 @@
         <v>5700</v>
       </c>
       <c r="K275" t="n">
-        <v>-38.46153846153847</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L275" t="n">
         <v>11360</v>
@@ -14380,7 +14398,7 @@
         <v>5750</v>
       </c>
       <c r="K276" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L276" t="n">
         <v>11345</v>
@@ -14431,7 +14449,7 @@
         <v>5800</v>
       </c>
       <c r="K277" t="n">
-        <v>-36.17021276595745</v>
+        <v>-50</v>
       </c>
       <c r="L277" t="n">
         <v>11328</v>
@@ -14482,7 +14500,7 @@
         <v>5810</v>
       </c>
       <c r="K278" t="n">
-        <v>-43.47826086956522</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L278" t="n">
         <v>11311</v>
@@ -14533,7 +14551,7 @@
         <v>5860</v>
       </c>
       <c r="K279" t="n">
-        <v>-32</v>
+        <v>-18.75</v>
       </c>
       <c r="L279" t="n">
         <v>11299</v>
@@ -14584,7 +14602,7 @@
         <v>5930</v>
       </c>
       <c r="K280" t="n">
-        <v>-35.84905660377358</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L280" t="n">
         <v>11286</v>
@@ -14635,7 +14653,7 @@
         <v>5990</v>
       </c>
       <c r="K281" t="n">
-        <v>-22.03389830508474</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>11280</v>
@@ -14686,7 +14704,7 @@
         <v>6110</v>
       </c>
       <c r="K282" t="n">
-        <v>-2.857142857142857</v>
+        <v>24</v>
       </c>
       <c r="L282" t="n">
         <v>11292</v>
@@ -14737,7 +14755,7 @@
         <v>6170</v>
       </c>
       <c r="K283" t="n">
-        <v>5.263157894736842</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="L283" t="n">
         <v>11310</v>
@@ -14788,7 +14806,7 @@
         <v>6240</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.614457831325301</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L284" t="n">
         <v>11318</v>
@@ -14839,7 +14857,7 @@
         <v>6310</v>
       </c>
       <c r="K285" t="n">
-        <v>4.444444444444445</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L285" t="n">
         <v>11339</v>
@@ -14890,7 +14908,7 @@
         <v>6380</v>
       </c>
       <c r="K286" t="n">
-        <v>8.51063829787234</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L286" t="n">
         <v>11362</v>
@@ -14941,7 +14959,7 @@
         <v>6420</v>
       </c>
       <c r="K287" t="n">
-        <v>7.368421052631578</v>
+        <v>40.98360655737705</v>
       </c>
       <c r="L287" t="n">
         <v>11386</v>
@@ -14992,7 +15010,7 @@
         <v>6450</v>
       </c>
       <c r="K288" t="n">
-        <v>11.34020618556701</v>
+        <v>38.98305084745763</v>
       </c>
       <c r="L288" t="n">
         <v>11414</v>
@@ -15043,7 +15061,7 @@
         <v>6480</v>
       </c>
       <c r="K289" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L289" t="n">
         <v>11440</v>
@@ -15094,7 +15112,7 @@
         <v>6610</v>
       </c>
       <c r="K290" t="n">
-        <v>6.542056074766355</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L290" t="n">
         <v>11460</v>
@@ -15145,7 +15163,7 @@
         <v>6620</v>
       </c>
       <c r="K291" t="n">
-        <v>8.411214953271028</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L291" t="n">
         <v>11475</v>
@@ -15196,7 +15214,7 @@
         <v>6690</v>
       </c>
       <c r="K292" t="n">
-        <v>7.407407407407407</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L292" t="n">
         <v>11471</v>
@@ -15247,7 +15265,7 @@
         <v>6710</v>
       </c>
       <c r="K293" t="n">
-        <v>5.454545454545454</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L293" t="n">
         <v>11459</v>
@@ -15298,7 +15316,7 @@
         <v>6760</v>
       </c>
       <c r="K294" t="n">
-        <v>7.142857142857142</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L294" t="n">
         <v>11459</v>
@@ -15349,7 +15367,7 @@
         <v>6840</v>
       </c>
       <c r="K295" t="n">
-        <v>5.263157894736842</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L295" t="n">
         <v>11444</v>
@@ -15400,7 +15418,7 @@
         <v>6860</v>
       </c>
       <c r="K296" t="n">
-        <v>-0.9009009009009009</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L296" t="n">
         <v>11420</v>
@@ -15451,7 +15469,7 @@
         <v>6870</v>
       </c>
       <c r="K297" t="n">
-        <v>4.672897196261682</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L297" t="n">
         <v>11401</v>
@@ -15502,7 +15520,7 @@
         <v>6900</v>
       </c>
       <c r="K298" t="n">
-        <v>8.256880733944955</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L298" t="n">
         <v>11382</v>
@@ -15553,7 +15571,7 @@
         <v>6930</v>
       </c>
       <c r="K299" t="n">
-        <v>0.9345794392523363</v>
+        <v>-37.5</v>
       </c>
       <c r="L299" t="n">
         <v>11357</v>
@@ -15604,7 +15622,7 @@
         <v>6950</v>
       </c>
       <c r="K300" t="n">
-        <v>9.803921568627452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>11347</v>
@@ -15655,7 +15673,7 @@
         <v>6980</v>
       </c>
       <c r="K301" t="n">
-        <v>1.01010101010101</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L301" t="n">
         <v>11333</v>
@@ -15706,7 +15724,7 @@
         <v>7030</v>
       </c>
       <c r="K302" t="n">
-        <v>-17.39130434782609</v>
+        <v>-31.25</v>
       </c>
       <c r="L302" t="n">
         <v>11321</v>
@@ -15757,7 +15775,7 @@
         <v>7060</v>
       </c>
       <c r="K303" t="n">
-        <v>-28.08988764044944</v>
+        <v>-60</v>
       </c>
       <c r="L303" t="n">
         <v>11308</v>
@@ -15808,7 +15826,7 @@
         <v>7090</v>
       </c>
       <c r="K304" t="n">
-        <v>-24.70588235294118</v>
+        <v>-52</v>
       </c>
       <c r="L304" t="n">
         <v>11287</v>
@@ -15859,7 +15877,7 @@
         <v>7090</v>
       </c>
       <c r="K305" t="n">
-        <v>-35.8974358974359</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L305" t="n">
         <v>11274</v>
@@ -15910,7 +15928,7 @@
         <v>7140</v>
       </c>
       <c r="K306" t="n">
-        <v>-52.63157894736842</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L306" t="n">
         <v>11258</v>
@@ -15961,7 +15979,7 @@
         <v>7150</v>
       </c>
       <c r="K307" t="n">
-        <v>-47.94520547945205</v>
+        <v>-76</v>
       </c>
       <c r="L307" t="n">
         <v>11242</v>
@@ -16012,7 +16030,7 @@
         <v>7170</v>
       </c>
       <c r="K308" t="n">
-        <v>-50</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L308" t="n">
         <v>11225</v>
@@ -16063,7 +16081,7 @@
         <v>7210</v>
       </c>
       <c r="K309" t="n">
-        <v>-58.9041095890411</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L309" t="n">
         <v>11207</v>
@@ -16114,7 +16132,7 @@
         <v>7220</v>
       </c>
       <c r="K310" t="n">
-        <v>-50.81967213114754</v>
+        <v>-75</v>
       </c>
       <c r="L310" t="n">
         <v>11186</v>
@@ -16165,7 +16183,7 @@
         <v>7240</v>
       </c>
       <c r="K311" t="n">
-        <v>-48.38709677419355</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L311" t="n">
         <v>11170</v>
@@ -16216,7 +16234,7 @@
         <v>7250</v>
       </c>
       <c r="K312" t="n">
-        <v>-42.85714285714285</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L312" t="n">
         <v>11158</v>
@@ -16267,7 +16285,7 @@
         <v>7260</v>
       </c>
       <c r="K313" t="n">
-        <v>-41.81818181818181</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L313" t="n">
         <v>11148</v>
@@ -16318,7 +16336,7 @@
         <v>7290</v>
       </c>
       <c r="K314" t="n">
-        <v>-58.49056603773585</v>
+        <v>-50</v>
       </c>
       <c r="L314" t="n">
         <v>11138</v>
@@ -16369,7 +16387,7 @@
         <v>7330</v>
       </c>
       <c r="K315" t="n">
-        <v>-38.77551020408163</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L315" t="n">
         <v>11132</v>
@@ -16420,7 +16438,7 @@
         <v>7380</v>
       </c>
       <c r="K316" t="n">
-        <v>-42.30769230769231</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L316" t="n">
         <v>11126</v>
@@ -16471,7 +16489,7 @@
         <v>7380</v>
       </c>
       <c r="K317" t="n">
-        <v>-45.09803921568628</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L317" t="n">
         <v>11119</v>
@@ -16522,7 +16540,7 @@
         <v>7450</v>
       </c>
       <c r="K318" t="n">
-        <v>-34.54545454545455</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L318" t="n">
         <v>11117</v>
@@ -16573,7 +16591,7 @@
         <v>7510</v>
       </c>
       <c r="K319" t="n">
-        <v>-37.93103448275862</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L319" t="n">
         <v>11113</v>
@@ -16624,7 +16642,7 @@
         <v>7510</v>
       </c>
       <c r="K320" t="n">
-        <v>-42.85714285714285</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L320" t="n">
         <v>11110</v>
@@ -16675,7 +16693,7 @@
         <v>7530</v>
       </c>
       <c r="K321" t="n">
-        <v>-34.54545454545455</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L321" t="n">
         <v>11107</v>
@@ -16726,7 +16744,7 @@
         <v>7530</v>
       </c>
       <c r="K322" t="n">
-        <v>-28</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L322" t="n">
         <v>11105</v>
@@ -16777,7 +16795,7 @@
         <v>7530</v>
       </c>
       <c r="K323" t="n">
-        <v>-23.40425531914894</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L323" t="n">
         <v>11104</v>
@@ -16828,7 +16846,7 @@
         <v>7550</v>
       </c>
       <c r="K324" t="n">
-        <v>-21.73913043478261</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L324" t="n">
         <v>11104</v>
@@ -16879,7 +16897,7 @@
         <v>7570</v>
       </c>
       <c r="K325" t="n">
-        <v>-25</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L325" t="n">
         <v>11098</v>
@@ -16930,7 +16948,7 @@
         <v>7610</v>
       </c>
       <c r="K326" t="n">
-        <v>-6.382978723404255</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L326" t="n">
         <v>11101</v>
@@ -16981,7 +16999,7 @@
         <v>7630</v>
       </c>
       <c r="K327" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>11102</v>
@@ -17032,7 +17050,7 @@
         <v>7640</v>
       </c>
       <c r="K328" t="n">
-        <v>-19.14893617021277</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L328" t="n">
         <v>11095</v>
@@ -17083,7 +17101,7 @@
         <v>7650</v>
       </c>
       <c r="K329" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>11095</v>
@@ -17134,7 +17152,7 @@
         <v>7670</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L330" t="n">
         <v>11093</v>
@@ -17185,7 +17203,7 @@
         <v>7720</v>
       </c>
       <c r="K331" t="n">
-        <v>-25</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L331" t="n">
         <v>11084</v>
@@ -17236,7 +17254,7 @@
         <v>7750</v>
       </c>
       <c r="K332" t="n">
-        <v>-28</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L332" t="n">
         <v>11072</v>
@@ -17287,7 +17305,7 @@
         <v>7820</v>
       </c>
       <c r="K333" t="n">
-        <v>-10.71428571428571</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L333" t="n">
         <v>11067</v>
@@ -17338,7 +17356,7 @@
         <v>7890</v>
       </c>
       <c r="K334" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L334" t="n">
         <v>11057</v>
@@ -17389,7 +17407,7 @@
         <v>7930</v>
       </c>
       <c r="K335" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L335" t="n">
         <v>11053</v>
@@ -17440,7 +17458,7 @@
         <v>7990</v>
       </c>
       <c r="K336" t="n">
-        <v>1.639344262295082</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>11051</v>
@@ -17491,7 +17509,7 @@
         <v>8040</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.060606060606061</v>
+        <v>-10</v>
       </c>
       <c r="L337" t="n">
         <v>11046</v>
@@ -17542,7 +17560,7 @@
         <v>8060</v>
       </c>
       <c r="K338" t="n">
-        <v>-21.31147540983606</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L338" t="n">
         <v>11040</v>
@@ -17593,7 +17611,7 @@
         <v>8140</v>
       </c>
       <c r="K339" t="n">
-        <v>1.587301587301587</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L339" t="n">
         <v>11041</v>
@@ -17644,7 +17662,7 @@
         <v>8190</v>
       </c>
       <c r="K340" t="n">
-        <v>-5.88235294117647</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L340" t="n">
         <v>11039</v>
@@ -17695,7 +17713,7 @@
         <v>8240</v>
       </c>
       <c r="K341" t="n">
-        <v>-1.408450704225352</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L341" t="n">
         <v>11047</v>
@@ -17746,7 +17764,7 @@
         <v>8450</v>
       </c>
       <c r="K342" t="n">
-        <v>21.73913043478261</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="L342" t="n">
         <v>11079</v>
@@ -17797,7 +17815,7 @@
         <v>8470</v>
       </c>
       <c r="K343" t="n">
-        <v>19.14893617021277</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L343" t="n">
         <v>11102</v>
@@ -17848,7 +17866,7 @@
         <v>8470</v>
       </c>
       <c r="K344" t="n">
-        <v>21.73913043478261</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L344" t="n">
         <v>11132</v>
@@ -17899,7 +17917,7 @@
         <v>8470</v>
       </c>
       <c r="K345" t="n">
-        <v>24.44444444444444</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L345" t="n">
         <v>11158</v>
@@ -17950,7 +17968,7 @@
         <v>8610</v>
       </c>
       <c r="K346" t="n">
-        <v>32</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L346" t="n">
         <v>11192</v>
@@ -18001,7 +18019,7 @@
         <v>8660</v>
       </c>
       <c r="K347" t="n">
-        <v>28.15533980582524</v>
+        <v>60</v>
       </c>
       <c r="L347" t="n">
         <v>11226</v>
@@ -18052,7 +18070,7 @@
         <v>8700</v>
       </c>
       <c r="K348" t="n">
-        <v>24.52830188679245</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L348" t="n">
         <v>11258</v>
@@ -18103,7 +18121,7 @@
         <v>8760</v>
       </c>
       <c r="K349" t="n">
-        <v>27.92792792792793</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L349" t="n">
         <v>11288</v>
@@ -18154,7 +18172,7 @@
         <v>8780</v>
       </c>
       <c r="K350" t="n">
-        <v>27.92792792792793</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="L350" t="n">
         <v>11321</v>
@@ -18205,7 +18223,7 @@
         <v>8840</v>
       </c>
       <c r="K351" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>11355</v>
@@ -18256,7 +18274,7 @@
         <v>8880</v>
       </c>
       <c r="K352" t="n">
-        <v>43.36283185840708</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L352" t="n">
         <v>11372</v>
@@ -18307,7 +18325,7 @@
         <v>8900</v>
       </c>
       <c r="K353" t="n">
-        <v>37.03703703703704</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L353" t="n">
         <v>11389</v>
@@ -18358,7 +18376,7 @@
         <v>8900</v>
       </c>
       <c r="K354" t="n">
-        <v>46.53465346534654</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L354" t="n">
         <v>11406</v>
@@ -18409,7 +18427,7 @@
         <v>9020</v>
       </c>
       <c r="K355" t="n">
-        <v>28.44036697247707</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L355" t="n">
         <v>11411</v>
@@ -18460,7 +18478,7 @@
         <v>9040</v>
       </c>
       <c r="K356" t="n">
-        <v>21.90476190476191</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L356" t="n">
         <v>11400</v>
@@ -18511,7 +18529,7 @@
         <v>9050</v>
       </c>
       <c r="K357" t="n">
-        <v>26.73267326732674</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L357" t="n">
         <v>11393</v>
@@ -18562,7 +18580,7 @@
         <v>9060</v>
       </c>
       <c r="K358" t="n">
-        <v>28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>11389</v>
@@ -18613,7 +18631,7 @@
         <v>9090</v>
       </c>
       <c r="K359" t="n">
-        <v>17.89473684210526</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L359" t="n">
         <v>11376</v>
@@ -18664,7 +18682,7 @@
         <v>9090</v>
       </c>
       <c r="K360" t="n">
-        <v>24.44444444444444</v>
+        <v>-68</v>
       </c>
       <c r="L360" t="n">
         <v>11365</v>
@@ -18715,7 +18733,7 @@
         <v>9090</v>
       </c>
       <c r="K361" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L361" t="n">
         <v>11348</v>
@@ -18766,7 +18784,7 @@
         <v>9090</v>
       </c>
       <c r="K362" t="n">
-        <v>-6.25</v>
+        <v>-100</v>
       </c>
       <c r="L362" t="n">
         <v>11327</v>
@@ -18817,7 +18835,7 @@
         <v>9130</v>
       </c>
       <c r="K363" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L363" t="n">
         <v>11304</v>
@@ -18868,7 +18886,7 @@
         <v>9130</v>
       </c>
       <c r="K364" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L364" t="n">
         <v>11281</v>
@@ -18919,7 +18937,7 @@
         <v>9140</v>
       </c>
       <c r="K365" t="n">
-        <v>-10.44776119402985</v>
+        <v>-100</v>
       </c>
       <c r="L365" t="n">
         <v>11269</v>
@@ -18970,7 +18988,7 @@
         <v>9140</v>
       </c>
       <c r="K366" t="n">
-        <v>-39.62264150943396</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>11259</v>
@@ -19021,7 +19039,7 @@
         <v>9140</v>
       </c>
       <c r="K367" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>11250</v>
@@ -19072,7 +19090,7 @@
         <v>9150</v>
       </c>
       <c r="K368" t="n">
-        <v>-28.88888888888889</v>
+        <v>-100</v>
       </c>
       <c r="L368" t="n">
         <v>11241</v>
@@ -19123,7 +19141,7 @@
         <v>9160</v>
       </c>
       <c r="K369" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L369" t="n">
         <v>11234</v>
@@ -19174,7 +19192,7 @@
         <v>9200</v>
       </c>
       <c r="K370" t="n">
-        <v>-52.38095238095239</v>
+        <v>-100</v>
       </c>
       <c r="L370" t="n">
         <v>11223</v>
@@ -19225,7 +19243,7 @@
         <v>9270</v>
       </c>
       <c r="K371" t="n">
-        <v>-48.83720930232558</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L371" t="n">
         <v>11219</v>
@@ -19276,7 +19294,7 @@
         <v>9330</v>
       </c>
       <c r="K372" t="n">
-        <v>-68.88888888888889</v>
+        <v>-30</v>
       </c>
       <c r="L372" t="n">
         <v>11209</v>
@@ -19327,7 +19345,7 @@
         <v>9360</v>
       </c>
       <c r="K373" t="n">
-        <v>-69.56521739130434</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L373" t="n">
         <v>11200</v>
@@ -19378,7 +19396,7 @@
         <v>9380</v>
       </c>
       <c r="K374" t="n">
-        <v>-62.5</v>
+        <v>-25</v>
       </c>
       <c r="L374" t="n">
         <v>11193</v>
@@ -19429,7 +19447,7 @@
         <v>9380</v>
       </c>
       <c r="K375" t="n">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="L375" t="n">
         <v>11187</v>
@@ -19480,7 +19498,7 @@
         <v>9410</v>
       </c>
       <c r="K376" t="n">
-        <v>-35.13513513513514</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L376" t="n">
         <v>11184</v>
@@ -19531,7 +19549,7 @@
         <v>9430</v>
       </c>
       <c r="K377" t="n">
-        <v>-36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L377" t="n">
         <v>11179</v>
@@ -19582,7 +19600,7 @@
         <v>9460</v>
       </c>
       <c r="K378" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="L378" t="n">
         <v>11172</v>
@@ -19633,7 +19651,7 @@
         <v>9490</v>
       </c>
       <c r="K379" t="n">
-        <v>-25</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L379" t="n">
         <v>11169</v>
@@ -19684,7 +19702,7 @@
         <v>9520</v>
       </c>
       <c r="K380" t="n">
-        <v>-16.27906976744186</v>
+        <v>-12</v>
       </c>
       <c r="L380" t="n">
         <v>11173</v>
@@ -19735,7 +19753,7 @@
         <v>9540</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.11111111111111</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L381" t="n">
         <v>11172</v>
@@ -19786,7 +19804,7 @@
         <v>9560</v>
       </c>
       <c r="K382" t="n">
-        <v>-6.382978723404255</v>
+        <v>50</v>
       </c>
       <c r="L382" t="n">
         <v>11179</v>
@@ -19837,7 +19855,7 @@
         <v>9560</v>
       </c>
       <c r="K383" t="n">
-        <v>2.325581395348837</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L383" t="n">
         <v>11189</v>
@@ -19888,7 +19906,7 @@
         <v>9560</v>
       </c>
       <c r="K384" t="n">
-        <v>2.325581395348837</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L384" t="n">
         <v>11197</v>
@@ -19939,7 +19957,7 @@
         <v>9570</v>
       </c>
       <c r="K385" t="n">
-        <v>6.976744186046512</v>
+        <v>37.5</v>
       </c>
       <c r="L385" t="n">
         <v>11206</v>
@@ -19990,7 +20008,7 @@
         <v>9600</v>
       </c>
       <c r="K386" t="n">
-        <v>13.04347826086956</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L386" t="n">
         <v>11215</v>
@@ -20041,7 +20059,7 @@
         <v>9610</v>
       </c>
       <c r="K387" t="n">
-        <v>14.8936170212766</v>
+        <v>100</v>
       </c>
       <c r="L387" t="n">
         <v>11227</v>
@@ -20092,7 +20110,7 @@
         <v>9620</v>
       </c>
       <c r="K388" t="n">
-        <v>19.14893617021277</v>
+        <v>100</v>
       </c>
       <c r="L388" t="n">
         <v>11243</v>
@@ -20143,7 +20161,7 @@
         <v>9620</v>
       </c>
       <c r="K389" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L389" t="n">
         <v>11256</v>
@@ -20194,7 +20212,7 @@
         <v>9640</v>
       </c>
       <c r="K390" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L390" t="n">
         <v>11264</v>
@@ -20245,7 +20263,7 @@
         <v>9640</v>
       </c>
       <c r="K391" t="n">
-        <v>13.51351351351351</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>11270</v>
@@ -20296,7 +20314,7 @@
         <v>9640</v>
       </c>
       <c r="K392" t="n">
-        <v>35.48387096774194</v>
+        <v>50</v>
       </c>
       <c r="L392" t="n">
         <v>11274</v>
@@ -20347,7 +20365,7 @@
         <v>9650</v>
       </c>
       <c r="K393" t="n">
-        <v>44.82758620689656</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>11277</v>
@@ -20398,7 +20416,7 @@
         <v>9660</v>
       </c>
       <c r="K394" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>11281</v>
@@ -20449,7 +20467,7 @@
         <v>9660</v>
       </c>
       <c r="K395" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>11284</v>
@@ -20500,7 +20518,7 @@
         <v>9670</v>
       </c>
       <c r="K396" t="n">
-        <v>30.76923076923077</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>11283</v>
@@ -20551,7 +20569,7 @@
         <v>9670</v>
       </c>
       <c r="K397" t="n">
-        <v>41.66666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L397" t="n">
         <v>11281</v>
@@ -20602,7 +20620,7 @@
         <v>9700</v>
       </c>
       <c r="K398" t="n">
-        <v>41.66666666666667</v>
+        <v>-75</v>
       </c>
       <c r="L398" t="n">
         <v>11275</v>
@@ -20653,7 +20671,7 @@
         <v>9700</v>
       </c>
       <c r="K399" t="n">
-        <v>33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L399" t="n">
         <v>11269</v>
@@ -20704,7 +20722,7 @@
         <v>9710</v>
       </c>
       <c r="K400" t="n">
-        <v>26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L400" t="n">
         <v>11266</v>
@@ -20755,7 +20773,7 @@
         <v>9780</v>
       </c>
       <c r="K401" t="n">
-        <v>-16.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L401" t="n">
         <v>11256</v>
@@ -20806,7 +20824,7 @@
         <v>9810</v>
       </c>
       <c r="K402" t="n">
-        <v>-12</v>
+        <v>-37.5</v>
       </c>
       <c r="L402" t="n">
         <v>11249</v>
@@ -20857,7 +20875,7 @@
         <v>9830</v>
       </c>
       <c r="K403" t="n">
-        <v>-18.51851851851852</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L403" t="n">
         <v>11241</v>
@@ -20908,7 +20926,7 @@
         <v>9900</v>
       </c>
       <c r="K404" t="n">
-        <v>-35.29411764705883</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L404" t="n">
         <v>11225</v>
@@ -20959,7 +20977,7 @@
         <v>9940</v>
       </c>
       <c r="K405" t="n">
-        <v>-45.94594594594595</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L405" t="n">
         <v>11205</v>
@@ -21010,7 +21028,7 @@
         <v>9950</v>
       </c>
       <c r="K406" t="n">
-        <v>-54.28571428571428</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L406" t="n">
         <v>11187</v>
@@ -21061,7 +21079,7 @@
         <v>9960</v>
       </c>
       <c r="K407" t="n">
-        <v>-60</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L407" t="n">
         <v>11168</v>
@@ -21112,7 +21130,7 @@
         <v>9960</v>
       </c>
       <c r="K408" t="n">
-        <v>-64.70588235294117</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L408" t="n">
         <v>11152</v>
@@ -21163,7 +21181,7 @@
         <v>9970</v>
       </c>
       <c r="K409" t="n">
-        <v>-60</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L409" t="n">
         <v>11137</v>
@@ -21214,7 +21232,7 @@
         <v>9980</v>
       </c>
       <c r="K410" t="n">
-        <v>-52.94117647058824</v>
+        <v>-40</v>
       </c>
       <c r="L410" t="n">
         <v>11122</v>
@@ -21265,7 +21283,7 @@
         <v>10000</v>
       </c>
       <c r="K411" t="n">
-        <v>-55.55555555555556</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L411" t="n">
         <v>11112</v>
@@ -21316,7 +21334,7 @@
         <v>10010</v>
       </c>
       <c r="K412" t="n">
-        <v>-56.75675675675676</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L412" t="n">
         <v>11098</v>
@@ -21367,7 +21385,7 @@
         <v>10030</v>
       </c>
       <c r="K413" t="n">
-        <v>-47.36842105263158</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L413" t="n">
         <v>11088</v>
@@ -21418,7 +21436,7 @@
         <v>10030</v>
       </c>
       <c r="K414" t="n">
-        <v>-51.35135135135135</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L414" t="n">
         <v>11085</v>
@@ -21469,7 +21487,7 @@
         <v>10030</v>
       </c>
       <c r="K415" t="n">
-        <v>-51.35135135135135</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>11086</v>
@@ -21520,7 +21538,7 @@
         <v>10060</v>
       </c>
       <c r="K416" t="n">
-        <v>-53.84615384615385</v>
+        <v>-20</v>
       </c>
       <c r="L416" t="n">
         <v>11083</v>
@@ -21571,7 +21589,7 @@
         <v>10070</v>
       </c>
       <c r="K417" t="n">
-        <v>-50</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L417" t="n">
         <v>11082</v>
@@ -21622,7 +21640,7 @@
         <v>10080</v>
       </c>
       <c r="K418" t="n">
-        <v>-42.10526315789473</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L418" t="n">
         <v>11082</v>
@@ -21673,7 +21691,7 @@
         <v>10090</v>
       </c>
       <c r="K419" t="n">
-        <v>-43.58974358974359</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L419" t="n">
         <v>11080</v>
@@ -21724,7 +21742,7 @@
         <v>10130</v>
       </c>
       <c r="K420" t="n">
-        <v>-33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L420" t="n">
         <v>11081</v>
@@ -21775,7 +21793,7 @@
         <v>10140</v>
       </c>
       <c r="K421" t="n">
-        <v>-22.22222222222222</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L421" t="n">
         <v>11083</v>
@@ -21826,7 +21844,7 @@
         <v>10160</v>
       </c>
       <c r="K422" t="n">
-        <v>-37.14285714285715</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L422" t="n">
         <v>11084</v>
@@ -21877,7 +21895,7 @@
         <v>10170</v>
       </c>
       <c r="K423" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>11084</v>
@@ -21928,7 +21946,7 @@
         <v>10170</v>
       </c>
       <c r="K424" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>11084</v>
@@ -21979,7 +21997,7 @@
         <v>10170</v>
       </c>
       <c r="K425" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L425" t="n">
         <v>11084</v>
@@ -22030,7 +22048,7 @@
         <v>10180</v>
       </c>
       <c r="K426" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L426" t="n">
         <v>11088</v>
@@ -22081,7 +22099,7 @@
         <v>10180</v>
       </c>
       <c r="K427" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L427" t="n">
         <v>11091</v>
@@ -22132,7 +22150,7 @@
         <v>10190</v>
       </c>
       <c r="K428" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L428" t="n">
         <v>11092</v>
@@ -22183,7 +22201,7 @@
         <v>10190</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>11094</v>
@@ -22234,7 +22252,7 @@
         <v>10190</v>
       </c>
       <c r="K430" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L430" t="n">
         <v>11092</v>
@@ -22285,7 +22303,7 @@
         <v>10260</v>
       </c>
       <c r="K431" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L431" t="n">
         <v>11084</v>
@@ -22336,7 +22354,7 @@
         <v>10280</v>
       </c>
       <c r="K432" t="n">
-        <v>-11.11111111111111</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L432" t="n">
         <v>11080</v>
@@ -22387,7 +22405,7 @@
         <v>10300</v>
       </c>
       <c r="K433" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L433" t="n">
         <v>11077</v>
@@ -22438,7 +22456,7 @@
         <v>10320</v>
       </c>
       <c r="K434" t="n">
-        <v>-3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L434" t="n">
         <v>11076</v>
@@ -22489,7 +22507,7 @@
         <v>10380</v>
       </c>
       <c r="K435" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L435" t="n">
         <v>11069</v>
@@ -22540,7 +22558,7 @@
         <v>10420</v>
       </c>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>11065</v>
@@ -22591,7 +22609,7 @@
         <v>10450</v>
       </c>
       <c r="K437" t="n">
-        <v>-10.52631578947368</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L437" t="n">
         <v>11058</v>
@@ -22642,7 +22660,7 @@
         <v>10530</v>
       </c>
       <c r="K438" t="n">
-        <v>-28.88888888888889</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L438" t="n">
         <v>11044</v>
@@ -22693,7 +22711,7 @@
         <v>10620</v>
       </c>
       <c r="K439" t="n">
-        <v>-5.660377358490567</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L439" t="n">
         <v>11039</v>
@@ -22744,7 +22762,7 @@
         <v>10640</v>
       </c>
       <c r="K440" t="n">
-        <v>-9.803921568627452</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L440" t="n">
         <v>11036</v>
@@ -22795,7 +22813,7 @@
         <v>10680</v>
       </c>
       <c r="K441" t="n">
-        <v>-14.81481481481481</v>
+        <v>-5</v>
       </c>
       <c r="L441" t="n">
         <v>11036</v>
@@ -22846,7 +22864,7 @@
         <v>10710</v>
       </c>
       <c r="K442" t="n">
-        <v>-5.454545454545454</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L442" t="n">
         <v>11037</v>
@@ -22897,7 +22915,7 @@
         <v>10720</v>
       </c>
       <c r="K443" t="n">
-        <v>-5.454545454545454</v>
+        <v>-5</v>
       </c>
       <c r="L443" t="n">
         <v>11037</v>
@@ -22948,7 +22966,7 @@
         <v>10720</v>
       </c>
       <c r="K444" t="n">
-        <v>-5.454545454545454</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L444" t="n">
         <v>11035</v>
@@ -22999,7 +23017,7 @@
         <v>10730</v>
       </c>
       <c r="K445" t="n">
-        <v>-3.571428571428571</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L445" t="n">
         <v>11040</v>
@@ -23050,7 +23068,7 @@
         <v>10740</v>
       </c>
       <c r="K446" t="n">
-        <v>-3.571428571428571</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L446" t="n">
         <v>11042</v>
@@ -23101,7 +23119,7 @@
         <v>10790</v>
       </c>
       <c r="K447" t="n">
-        <v>4.918032786885246</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L447" t="n">
         <v>11052</v>
@@ -23152,7 +23170,7 @@
         <v>10790</v>
       </c>
       <c r="K448" t="n">
-        <v>6.666666666666667</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L448" t="n">
         <v>11070</v>
@@ -23203,7 +23221,7 @@
         <v>10790</v>
       </c>
       <c r="K449" t="n">
-        <v>6.666666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L449" t="n">
         <v>11079</v>
@@ -23254,7 +23272,7 @@
         <v>10890</v>
       </c>
       <c r="K450" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L450" t="n">
         <v>11096</v>
@@ -23305,7 +23323,7 @@
         <v>10960</v>
       </c>
       <c r="K451" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L451" t="n">
         <v>11110</v>
@@ -23356,7 +23374,7 @@
         <v>10990</v>
       </c>
       <c r="K452" t="n">
-        <v>21.12676056338028</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L452" t="n">
         <v>11124</v>
@@ -23407,7 +23425,7 @@
         <v>11000</v>
       </c>
       <c r="K453" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L453" t="n">
         <v>11138</v>
@@ -23458,7 +23476,7 @@
         <v>11000</v>
       </c>
       <c r="K454" t="n">
-        <v>17.64705882352941</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L454" t="n">
         <v>11152</v>
@@ -23509,7 +23527,7 @@
         <v>11050</v>
       </c>
       <c r="K455" t="n">
-        <v>34.32835820895522</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L455" t="n">
         <v>11170</v>
@@ -23560,7 +23578,7 @@
         <v>11060</v>
       </c>
       <c r="K456" t="n">
-        <v>31.25</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L456" t="n">
         <v>11188</v>
@@ -23611,7 +23629,7 @@
         <v>11060</v>
       </c>
       <c r="K457" t="n">
-        <v>37.70491803278689</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L457" t="n">
         <v>11201</v>
@@ -23662,7 +23680,7 @@
         <v>11060</v>
       </c>
       <c r="K458" t="n">
-        <v>58.49056603773585</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L458" t="n">
         <v>11214</v>
@@ -23713,7 +23731,7 @@
         <v>11090</v>
       </c>
       <c r="K459" t="n">
-        <v>53.19148936170212</v>
+        <v>30</v>
       </c>
       <c r="L459" t="n">
         <v>11230</v>
@@ -23764,7 +23782,7 @@
         <v>11140</v>
       </c>
       <c r="K460" t="n">
-        <v>56.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="L460" t="n">
         <v>11241</v>
@@ -23815,7 +23833,7 @@
         <v>11180</v>
       </c>
       <c r="K461" t="n">
-        <v>56.00000000000001</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L461" t="n">
         <v>11255</v>
@@ -23866,7 +23884,7 @@
         <v>11190</v>
       </c>
       <c r="K462" t="n">
-        <v>50</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L462" t="n">
         <v>11265</v>
@@ -23917,7 +23935,7 @@
         <v>11220</v>
       </c>
       <c r="K463" t="n">
-        <v>52</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L463" t="n">
         <v>11277</v>
@@ -23968,7 +23986,7 @@
         <v>11280</v>
       </c>
       <c r="K464" t="n">
-        <v>57.14285714285714</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L464" t="n">
         <v>11295</v>
@@ -24019,7 +24037,7 @@
         <v>11280</v>
       </c>
       <c r="K465" t="n">
-        <v>56.36363636363636</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L465" t="n">
         <v>11308</v>
@@ -24070,7 +24088,7 @@
         <v>11300</v>
       </c>
       <c r="K466" t="n">
-        <v>57.14285714285714</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L466" t="n">
         <v>11322</v>
@@ -24121,7 +24139,7 @@
         <v>11300</v>
       </c>
       <c r="K467" t="n">
-        <v>52.94117647058824</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L467" t="n">
         <v>11336</v>
@@ -24172,7 +24190,7 @@
         <v>11300</v>
       </c>
       <c r="K468" t="n">
-        <v>52.94117647058824</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L468" t="n">
         <v>11350</v>
@@ -24223,7 +24241,7 @@
         <v>11300</v>
       </c>
       <c r="K469" t="n">
-        <v>52.94117647058824</v>
+        <v>37.5</v>
       </c>
       <c r="L469" t="n">
         <v>11361</v>
@@ -24274,7 +24292,7 @@
         <v>11300</v>
       </c>
       <c r="K470" t="n">
-        <v>41.46341463414634</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L470" t="n">
         <v>11367</v>
@@ -24325,7 +24343,7 @@
         <v>11310</v>
       </c>
       <c r="K471" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L471" t="n">
         <v>11378</v>
@@ -24376,7 +24394,7 @@
         <v>11330</v>
       </c>
       <c r="K472" t="n">
-        <v>70.58823529411765</v>
+        <v>100</v>
       </c>
       <c r="L472" t="n">
         <v>11392</v>
@@ -24427,7 +24445,7 @@
         <v>11400</v>
       </c>
       <c r="K473" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L473" t="n">
         <v>11410</v>
@@ -24478,7 +24496,7 @@
         <v>11430</v>
       </c>
       <c r="K474" t="n">
-        <v>62.7906976744186</v>
+        <v>60</v>
       </c>
       <c r="L474" t="n">
         <v>11419</v>
@@ -24529,7 +24547,7 @@
         <v>11460</v>
       </c>
       <c r="K475" t="n">
-        <v>60.97560975609756</v>
+        <v>62.5</v>
       </c>
       <c r="L475" t="n">
         <v>11431</v>
@@ -24580,7 +24598,7 @@
         <v>11470</v>
       </c>
       <c r="K476" t="n">
-        <v>56.09756097560976</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L476" t="n">
         <v>11440</v>
@@ -24631,7 +24649,7 @@
         <v>11490</v>
       </c>
       <c r="K477" t="n">
-        <v>48.83720930232558</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L477" t="n">
         <v>11447</v>
@@ -24682,7 +24700,7 @@
         <v>11510</v>
       </c>
       <c r="K478" t="n">
-        <v>42.22222222222222</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L478" t="n">
         <v>11452</v>
@@ -24733,7 +24751,7 @@
         <v>11540</v>
       </c>
       <c r="K479" t="n">
-        <v>28.88888888888889</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L479" t="n">
         <v>11454</v>

--- a/BackTest/2019-11-02 BackTest REP.xlsx
+++ b/BackTest/2019-11-02 BackTest REP.xlsx
@@ -451,17 +451,13 @@
         <v>10602.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10560</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>10602.33333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10560</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>10602.16666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10560</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>10602</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>10570</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10570</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>10601.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>10570</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,4174 +626,3520 @@
         <v>10602</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75.0331</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10601</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10520</v>
+      </c>
+      <c r="F9" t="n">
+        <v>217.7127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10600.16666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.3868</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10599.16666666667</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10510</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10510</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60.1538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10597.83333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10510</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F12" t="n">
+        <v>136.5654</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10596.33333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10550</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10550</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10595.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>10560</v>
       </c>
-      <c r="K7" t="n">
+      <c r="C14" t="n">
+        <v>10560</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.1317</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10594.83333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>10570</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="C15" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10570</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10570</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.019</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10594.33333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10550</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10550</v>
+      </c>
+      <c r="F16" t="n">
+        <v>89.88630000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10593.33333333333</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10570</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32.829</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10592.16666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10570</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10570</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10570</v>
+      </c>
+      <c r="F18" t="n">
+        <v>41.0395</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10591.66666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10620</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10620</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10620</v>
+      </c>
+      <c r="F19" t="n">
+        <v>72.0677</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10591.33333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F20" t="n">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10591.83333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18.6737</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10592.33333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10592.66666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.1373</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10593</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.7005</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10593.16666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10593.16666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10593.16666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F27" t="n">
+        <v>210.945</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10593.16666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.4244</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10593</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.0031</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10592.66666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120.8298</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10592.83333333333</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10680</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F31" t="n">
+        <v>111.9688</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10593.33333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10680</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.1876</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10594.16666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F33" t="n">
+        <v>155.7742</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10595.16666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10596.16666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.2899</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10597</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.5085</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10597.33333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F37" t="n">
+        <v>18.4939</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10597.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.4328</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10597.66666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F39" t="n">
+        <v>63.3846</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10598</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10680</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10680</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25.5618</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10597.66666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F41" t="n">
+        <v>32</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10597.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10680</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10680</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10597</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.783</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10597.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F44" t="n">
+        <v>58.8359</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10598.33333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10600.33333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10602.66666666667</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13.4033</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10607.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.7918</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10610.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F49" t="n">
+        <v>63.2261</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10612.66666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10680</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F50" t="n">
+        <v>27.198</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10615.66666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F51" t="n">
+        <v>130.8444</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10618.66666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F52" t="n">
+        <v>95.2854</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10621.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F53" t="n">
+        <v>187.4627</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10625.16666666667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10628.83333333333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10631.66666666667</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10634.66666666667</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F57" t="n">
+        <v>235.1047</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10638</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.3597</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10641.83333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F59" t="n">
+        <v>39.2692</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10645.16666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10648.33333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.9514</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10651</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.9916</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10653.66666666667</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10760</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F63" t="n">
+        <v>200.7584</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10656.83333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10750</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10750</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5320.936</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10660</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10750</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10750</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10704.7496</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10663</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10750</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10750</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F66" t="n">
+        <v>159.3341</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10666</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F67" t="n">
+        <v>157.0599</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10668.66666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10730</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.3768</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10672</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F69" t="n">
+        <v>29.5793</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10674.66666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F70" t="n">
+        <v>62.6168</v>
+      </c>
+      <c r="G70" t="n">
+        <v>10677.33333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F71" t="n">
+        <v>104.1862</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10680.33333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F72" t="n">
+        <v>317.0971</v>
+      </c>
+      <c r="G72" t="n">
+        <v>10683.33333333333</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F73" t="n">
+        <v>269.7799</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10685.66666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.1275</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10687.33333333333</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16.5712</v>
+      </c>
+      <c r="G75" t="n">
+        <v>10688.83333333333</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F76" t="n">
+        <v>45.889</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10690.33333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F77" t="n">
+        <v>57.3657</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10692.83333333333</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10710</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>10695.16666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F79" t="n">
+        <v>37.6496</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10696</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15.2361</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10695.83333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10650</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F81" t="n">
+        <v>19.721</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10695.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10650</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10695.16666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1245</v>
+      </c>
+      <c r="G83" t="n">
+        <v>10695.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F84" t="n">
+        <v>99.5693</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10695.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13.371</v>
+      </c>
+      <c r="G85" t="n">
+        <v>10695</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10694.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F87" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>10694</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10620</v>
+      </c>
+      <c r="F88" t="n">
+        <v>233.0311</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10693.16666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10650</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10692.83333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10650</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F90" t="n">
+        <v>37.4097</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10692.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F91" t="n">
+        <v>29</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10692.83333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>10692.83333333333</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10620</v>
+      </c>
+      <c r="F93" t="n">
+        <v>158.9357</v>
+      </c>
+      <c r="G93" t="n">
+        <v>10691.33333333333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10630</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10630</v>
+      </c>
+      <c r="F94" t="n">
+        <v>205.0720084190833</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10690.16666666667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10630</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10620</v>
+      </c>
+      <c r="F95" t="n">
+        <v>445.1667</v>
+      </c>
+      <c r="G95" t="n">
+        <v>10689</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19.0926</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10688.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10670</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10670</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10670</v>
+      </c>
+      <c r="F97" t="n">
+        <v>22.2468</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10688</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C98" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10687.83333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10690</v>
+      </c>
+      <c r="F99" t="n">
+        <v>42.3574</v>
+      </c>
+      <c r="G99" t="n">
+        <v>10687.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.0176</v>
+      </c>
+      <c r="G100" t="n">
+        <v>10687.16666666667</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F101" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>10686.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10630</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10600</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10630</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10600</v>
+      </c>
+      <c r="F102" t="n">
+        <v>200.4291</v>
+      </c>
+      <c r="G102" t="n">
+        <v>10685.16666666667</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10660</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5.6152</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10684.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.4182</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10683.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10640</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9.7369</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10682.5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10650</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F106" t="n">
+        <v>22.7676</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10681.66666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10650</v>
+      </c>
+      <c r="F107" t="n">
+        <v>25.808</v>
+      </c>
+      <c r="G107" t="n">
+        <v>10680.83333333333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10650</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75.0331</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10601</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10540</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10520</v>
-      </c>
-      <c r="F9" t="n">
-        <v>217.7127</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10600.16666666667</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10540</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.3868</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10599.16666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10540</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10510</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10510</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10510</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60.1538</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10597.83333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10510</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10510</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F12" t="n">
-        <v>136.5654</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10596.33333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10530</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10550</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10550</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10595.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10540</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10560</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10560</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10560</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10560</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15.1317</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10594.83333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20.019</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10594.33333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10560</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10550</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10560</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10550</v>
-      </c>
-      <c r="F16" t="n">
-        <v>89.88630000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10593.33333333333</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10560</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10570</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10570</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10560</v>
-      </c>
-      <c r="F17" t="n">
-        <v>32.829</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10592.16666666667</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10560</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="F18" t="n">
-        <v>41.0395</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10591.66666666667</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10620</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10620</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10620</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10620</v>
-      </c>
-      <c r="F19" t="n">
-        <v>72.0677</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10591.33333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10620</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F20" t="n">
-        <v>79.73999999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10591.83333333333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18.6737</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10592.33333333333</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F22" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10592.66666666667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C23" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14.1373</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10593</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C24" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9.7005</v>
-      </c>
-      <c r="G24" t="n">
-        <v>10593.16666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>10593.16666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>10593.16666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F27" t="n">
-        <v>210.945</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10593.16666666667</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D28" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.4244</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10593</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9.0031</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10592.66666666667</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K29" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F30" t="n">
-        <v>120.8298</v>
-      </c>
-      <c r="G30" t="n">
-        <v>10592.83333333333</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10680</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10680</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F31" t="n">
-        <v>111.9688</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10593.33333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K31" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10680</v>
-      </c>
-      <c r="F32" t="n">
-        <v>94.1876</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10594.16666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10680</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F33" t="n">
-        <v>155.7742</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10595.16666666667</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10690</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D34" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>10596.16666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C35" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F35" t="n">
-        <v>14.2899</v>
-      </c>
-      <c r="G35" t="n">
-        <v>10597</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C36" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D36" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.5085</v>
-      </c>
-      <c r="G36" t="n">
-        <v>10597.33333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C37" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D37" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F37" t="n">
-        <v>18.4939</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10597.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C38" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D38" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.4328</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10597.66666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C39" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F39" t="n">
-        <v>63.3846</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10598</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C40" t="n">
-        <v>10680</v>
-      </c>
-      <c r="D40" t="n">
-        <v>10680</v>
-      </c>
-      <c r="E40" t="n">
-        <v>10680</v>
-      </c>
-      <c r="F40" t="n">
-        <v>25.5618</v>
-      </c>
-      <c r="G40" t="n">
-        <v>10597.66666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F41" t="n">
-        <v>32</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10597.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10680</v>
-      </c>
-      <c r="D42" t="n">
-        <v>10680</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10680</v>
-      </c>
-      <c r="F42" t="n">
-        <v>10</v>
-      </c>
-      <c r="G42" t="n">
-        <v>10597</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D43" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7.783</v>
-      </c>
-      <c r="G43" t="n">
-        <v>10597.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F44" t="n">
-        <v>58.8359</v>
-      </c>
-      <c r="G44" t="n">
-        <v>10598.33333333333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.1241</v>
-      </c>
-      <c r="G45" t="n">
-        <v>10600.33333333333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0977</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10602.66666666667</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13.4033</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10607.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D48" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5.7918</v>
-      </c>
-      <c r="G48" t="n">
-        <v>10610.5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10680</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F49" t="n">
-        <v>63.2261</v>
-      </c>
-      <c r="G49" t="n">
-        <v>10612.66666666667</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>10680</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10680</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F50" t="n">
-        <v>27.198</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10615.66666666667</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F51" t="n">
-        <v>130.8444</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10618.66666666667</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D52" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F52" t="n">
-        <v>95.2854</v>
-      </c>
-      <c r="G52" t="n">
-        <v>10621.5</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D53" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F53" t="n">
-        <v>187.4627</v>
-      </c>
-      <c r="G53" t="n">
-        <v>10625.16666666667</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D54" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>10628.83333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D55" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E55" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10631.66666666667</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C56" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D56" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F56" t="n">
-        <v>11</v>
-      </c>
-      <c r="G56" t="n">
-        <v>10634.66666666667</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F57" t="n">
-        <v>235.1047</v>
-      </c>
-      <c r="G57" t="n">
-        <v>10638</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C58" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10.3597</v>
-      </c>
-      <c r="G58" t="n">
-        <v>10641.83333333333</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C59" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D59" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F59" t="n">
-        <v>39.2692</v>
-      </c>
-      <c r="G59" t="n">
-        <v>10645.16666666667</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C60" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D60" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.7308</v>
-      </c>
-      <c r="G60" t="n">
-        <v>10648.33333333333</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D61" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4.9514</v>
-      </c>
-      <c r="G61" t="n">
-        <v>10651</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C62" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D62" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1.9916</v>
-      </c>
-      <c r="G62" t="n">
-        <v>10653.66666666667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C63" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D63" t="n">
-        <v>10760</v>
-      </c>
-      <c r="E63" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F63" t="n">
-        <v>200.7584</v>
-      </c>
-      <c r="G63" t="n">
-        <v>10656.83333333333</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>10750</v>
-      </c>
-      <c r="C64" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D64" t="n">
-        <v>10750</v>
-      </c>
-      <c r="E64" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5320.936</v>
-      </c>
-      <c r="G64" t="n">
-        <v>10660</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>10750</v>
-      </c>
-      <c r="C65" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D65" t="n">
-        <v>10750</v>
-      </c>
-      <c r="E65" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F65" t="n">
-        <v>10704.7496</v>
-      </c>
-      <c r="G65" t="n">
-        <v>10663</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>10750</v>
-      </c>
-      <c r="C66" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D66" t="n">
-        <v>10750</v>
-      </c>
-      <c r="E66" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F66" t="n">
-        <v>159.3341</v>
-      </c>
-      <c r="G66" t="n">
-        <v>10666</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C67" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D67" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E67" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F67" t="n">
-        <v>157.0599</v>
-      </c>
-      <c r="G67" t="n">
-        <v>10668.66666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10730</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4.3768</v>
-      </c>
-      <c r="G68" t="n">
-        <v>10672</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D69" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F69" t="n">
-        <v>29.5793</v>
-      </c>
-      <c r="G69" t="n">
-        <v>10674.66666666667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F70" t="n">
-        <v>62.6168</v>
-      </c>
-      <c r="G70" t="n">
-        <v>10677.33333333333</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F71" t="n">
-        <v>104.1862</v>
-      </c>
-      <c r="G71" t="n">
-        <v>10680.33333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D72" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F72" t="n">
-        <v>317.0971</v>
-      </c>
-      <c r="G72" t="n">
-        <v>10683.33333333333</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D73" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F73" t="n">
-        <v>269.7799</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10685.66666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C74" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D74" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2.1275</v>
-      </c>
-      <c r="G74" t="n">
-        <v>10687.33333333333</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C75" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D75" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F75" t="n">
-        <v>16.5712</v>
-      </c>
-      <c r="G75" t="n">
-        <v>10688.83333333333</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C76" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D76" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F76" t="n">
-        <v>45.889</v>
-      </c>
-      <c r="G76" t="n">
-        <v>10690.33333333333</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10720</v>
-      </c>
-      <c r="D77" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F77" t="n">
-        <v>57.3657</v>
-      </c>
-      <c r="G77" t="n">
-        <v>10692.83333333333</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>10710</v>
-      </c>
-      <c r="C78" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D78" t="n">
-        <v>10710</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G78" t="n">
-        <v>10695.16666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C79" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D79" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E79" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F79" t="n">
-        <v>37.6496</v>
-      </c>
-      <c r="G79" t="n">
-        <v>10696</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C80" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D80" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F80" t="n">
-        <v>15.2361</v>
-      </c>
-      <c r="G80" t="n">
-        <v>10695.83333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C81" t="n">
-        <v>10650</v>
-      </c>
-      <c r="D81" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F81" t="n">
-        <v>19.721</v>
-      </c>
-      <c r="G81" t="n">
-        <v>10695.5</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C82" t="n">
-        <v>10650</v>
-      </c>
-      <c r="D82" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F82" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="G82" t="n">
-        <v>10695.16666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D83" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.1245</v>
-      </c>
-      <c r="G83" t="n">
-        <v>10695.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C84" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D84" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F84" t="n">
-        <v>99.5693</v>
-      </c>
-      <c r="G84" t="n">
-        <v>10695.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C85" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D85" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E85" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F85" t="n">
-        <v>13.371</v>
-      </c>
-      <c r="G85" t="n">
-        <v>10695</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C86" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D86" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E86" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="G86" t="n">
-        <v>10694.5</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C87" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D87" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E87" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F87" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="G87" t="n">
-        <v>10694</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C88" t="n">
-        <v>10620</v>
-      </c>
-      <c r="D88" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E88" t="n">
-        <v>10620</v>
-      </c>
-      <c r="F88" t="n">
-        <v>233.0311</v>
-      </c>
-      <c r="G88" t="n">
-        <v>10693.16666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C89" t="n">
-        <v>10650</v>
-      </c>
-      <c r="D89" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.1775</v>
-      </c>
-      <c r="G89" t="n">
-        <v>10692.83333333333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C90" t="n">
-        <v>10650</v>
-      </c>
-      <c r="D90" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F90" t="n">
-        <v>37.4097</v>
-      </c>
-      <c r="G90" t="n">
-        <v>10692.5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>10700</v>
-      </c>
-      <c r="C91" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F91" t="n">
-        <v>29</v>
-      </c>
-      <c r="G91" t="n">
-        <v>10692.83333333333</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C92" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D92" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E92" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F92" t="n">
-        <v>100</v>
-      </c>
-      <c r="G92" t="n">
-        <v>10692.83333333333</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C93" t="n">
-        <v>10620</v>
-      </c>
-      <c r="D93" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E93" t="n">
-        <v>10620</v>
-      </c>
-      <c r="F93" t="n">
-        <v>158.9357</v>
-      </c>
-      <c r="G93" t="n">
-        <v>10691.33333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C94" t="n">
-        <v>10630</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E94" t="n">
-        <v>10630</v>
-      </c>
-      <c r="F94" t="n">
-        <v>205.0720084190833</v>
-      </c>
-      <c r="G94" t="n">
-        <v>10690.16666666667</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C95" t="n">
-        <v>10630</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10620</v>
-      </c>
-      <c r="F95" t="n">
-        <v>445.1667</v>
-      </c>
-      <c r="G95" t="n">
-        <v>10689</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C96" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E96" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F96" t="n">
-        <v>19.0926</v>
-      </c>
-      <c r="G96" t="n">
-        <v>10688.5</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>10670</v>
-      </c>
-      <c r="C97" t="n">
-        <v>10670</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E97" t="n">
-        <v>10670</v>
-      </c>
-      <c r="F97" t="n">
-        <v>22.2468</v>
-      </c>
-      <c r="G97" t="n">
-        <v>10688</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C98" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E98" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.025</v>
-      </c>
-      <c r="G98" t="n">
-        <v>10687.83333333333</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>10690</v>
-      </c>
-      <c r="C99" t="n">
-        <v>10690</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10690</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10690</v>
-      </c>
-      <c r="F99" t="n">
-        <v>42.3574</v>
-      </c>
-      <c r="G99" t="n">
-        <v>10687.5</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C100" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10.0176</v>
-      </c>
-      <c r="G100" t="n">
-        <v>10687.16666666667</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C101" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E101" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F101" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>10686.5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>10630</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10600</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10630</v>
-      </c>
-      <c r="E102" t="n">
-        <v>10600</v>
-      </c>
-      <c r="F102" t="n">
-        <v>200.4291</v>
-      </c>
-      <c r="G102" t="n">
-        <v>10685.16666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>10660</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10660</v>
-      </c>
-      <c r="F103" t="n">
-        <v>5.6152</v>
-      </c>
-      <c r="G103" t="n">
-        <v>10684.5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E104" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4.4182</v>
-      </c>
-      <c r="G104" t="n">
-        <v>10683.5</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>10640</v>
-      </c>
-      <c r="C105" t="n">
-        <v>10640</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E105" t="n">
-        <v>10640</v>
-      </c>
-      <c r="F105" t="n">
-        <v>9.7369</v>
-      </c>
-      <c r="G105" t="n">
-        <v>10682.5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C106" t="n">
-        <v>10650</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10650</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F106" t="n">
-        <v>22.7676</v>
-      </c>
-      <c r="G106" t="n">
-        <v>10681.66666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10650</v>
-      </c>
-      <c r="C107" t="n">
-        <v>10660</v>
-      </c>
-      <c r="D107" t="n">
-        <v>10660</v>
-      </c>
-      <c r="E107" t="n">
-        <v>10650</v>
-      </c>
-      <c r="F107" t="n">
-        <v>25.808</v>
-      </c>
-      <c r="G107" t="n">
-        <v>10680.83333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>10570</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4853,15 +4167,15 @@
         <v>10680.16666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>10570</v>
-      </c>
+      <c r="J108" t="n">
+        <v>10660</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,15 +4208,15 @@
         <v>10680.33333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>10570</v>
-      </c>
+      <c r="J109" t="n">
+        <v>10660</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,15 +4249,15 @@
         <v>10680</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>10570</v>
-      </c>
+      <c r="J110" t="n">
+        <v>10650</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,9 +4296,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,9 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,9 +4374,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5105,9 +4413,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,9 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,9 +4491,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,9 +4530,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +4569,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5351,9 +4647,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,9 +4686,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5433,9 +4725,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5515,9 +4803,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,9 +4842,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,9 +4881,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,9 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5679,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,9 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5761,9 +5037,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,9 +5076,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,9 +5115,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,9 +5154,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5925,9 +5193,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,9 +5232,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,9 +5271,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,9 +5310,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6089,9 +5349,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,9 +5388,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,9 +5427,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6212,9 +5466,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6253,9 +5505,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6294,9 +5544,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6335,9 +5583,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6376,9 +5622,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,9 +5661,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6458,9 +5700,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6499,9 +5739,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,9 +5778,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,9 +5817,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,9 +5856,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,9 +5895,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6704,9 +5934,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6745,9 +5973,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,9 +6012,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,9 +6051,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,9 +6090,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,9 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6950,9 +6168,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7032,9 +6246,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,9 +6285,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,9 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7155,9 +6363,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,9 +6402,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,9 +6441,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,9 +6480,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,9 +6519,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7360,9 +6558,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,9 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,9 +6636,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,9 +6675,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,9 +6714,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,9 +6753,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,9 +6792,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7647,9 +6831,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,9 +6870,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,9 +6909,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,9 +6948,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7811,9 +6987,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7852,9 +7026,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,9 +7065,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7934,9 +7104,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,9 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,9 +7182,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,9 +7221,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,9 +7299,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,9 +7338,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8221,9 +7377,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,9 +7416,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,9 +7455,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8344,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,9 +7533,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,9 +7572,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,9 +7611,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8508,9 +7650,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,9 +7689,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,9 +7728,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8631,9 +7767,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,9 +7806,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,9 +7845,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8754,9 +7884,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,9 +7923,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,9 +7962,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,9 +8001,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,9 +8040,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8959,9 +8079,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +8118,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,9 +8157,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,9 +8196,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,9 +8235,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9164,9 +8274,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,9 +8313,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,9 +8352,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,9 +8391,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,9 +8430,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,9 +8469,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,9 +8508,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,90 +8544,94 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>10570</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11840</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11920</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11920</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11840</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1775.6461</v>
+      </c>
+      <c r="G221" t="n">
+        <v>11094.66666666667</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11850</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11940</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11850</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1254.41272312187</v>
+      </c>
+      <c r="G222" t="n">
+        <v>11111.83333333333</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1.115151371807001</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>11840</v>
-      </c>
-      <c r="C221" t="n">
-        <v>11920</v>
-      </c>
-      <c r="D221" t="n">
-        <v>11920</v>
-      </c>
-      <c r="E221" t="n">
-        <v>11840</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1775.6461</v>
-      </c>
-      <c r="G221" t="n">
-        <v>11094.66666666667</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>11850</v>
-      </c>
-      <c r="C222" t="n">
-        <v>11940</v>
-      </c>
-      <c r="D222" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E222" t="n">
-        <v>11850</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1254.41272312187</v>
-      </c>
-      <c r="G222" t="n">
-        <v>11111.83333333333</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9594,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -9629,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -9664,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest REP.xlsx
+++ b/BackTest/2019-11-02 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-616.2346</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-616.2346</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10570</v>
@@ -523,7 +523,7 @@
         <v>-531.1182</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10570</v>
@@ -562,7 +562,7 @@
         <v>-509.1182</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10580</v>
@@ -601,7 +601,7 @@
         <v>-1503.3166</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10600</v>
@@ -640,7 +640,7 @@
         <v>-1461.6344</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10540</v>
@@ -679,7 +679,7 @@
         <v>-1461.6344</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10590</v>
@@ -718,7 +718,7 @@
         <v>-1431.3661</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>10590</v>
@@ -757,7 +757,7 @@
         <v>-1475.366</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>10600</v>
@@ -796,7 +796,7 @@
         <v>-1458.767</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>10590</v>
@@ -835,7 +835,7 @@
         <v>-1458.767</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>10600</v>
@@ -874,7 +874,7 @@
         <v>-1458.767</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10600</v>
@@ -913,7 +913,7 @@
         <v>-1458.767</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10600</v>
@@ -952,7 +952,7 @@
         <v>-1152.143</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>10600</v>
@@ -991,9 +991,11 @@
         <v>-1150.143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10610</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1028,7 +1030,7 @@
         <v>-1154.143</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10640</v>
@@ -1067,7 +1069,7 @@
         <v>-1153.6849</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>10600</v>
@@ -1106,7 +1108,7 @@
         <v>-1153.6849</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10640</v>
@@ -1145,9 +1147,11 @@
         <v>-1153.6849</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10640</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1182,7 +1186,7 @@
         <v>-1148.6849</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>10640</v>
@@ -1221,9 +1225,11 @@
         <v>-1148.6849</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10650</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1258,9 +1264,11 @@
         <v>-1123.835</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10650</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1295,9 +1303,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10660</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1332,9 +1342,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10670</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1369,9 +1381,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10670</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1406,9 +1420,11 @@
         <v>-1117.835</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10670</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1443,9 +1459,11 @@
         <v>-1113.156467820393</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10680</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1480,9 +1498,11 @@
         <v>-1231.801867820393</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10690</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1517,9 +1537,11 @@
         <v>-1341.526867820393</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10660</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1554,9 +1576,11 @@
         <v>-1434.072267820393</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10650</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1591,9 +1615,11 @@
         <v>-1240.390567820393</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10640</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1628,9 +1654,11 @@
         <v>-1241.567667820393</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10650</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1665,9 +1693,11 @@
         <v>-1138.489067820393</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10640</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1702,9 +1732,11 @@
         <v>-1050.347067820393</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10650</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1739,9 +1771,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10680</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1776,9 +1810,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10690</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1813,9 +1849,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10690</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1850,9 +1888,11 @@
         <v>-869.0077678203928</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10690</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1887,9 +1927,11 @@
         <v>-784.1672678203928</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10700</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1924,9 +1966,11 @@
         <v>-784.1672678203928</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10710</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1961,9 +2005,11 @@
         <v>-1107.027267820393</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10710</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1998,9 +2044,11 @@
         <v>-1197.969667820393</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10670</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2035,9 +2083,11 @@
         <v>-1316.099667820393</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10650</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2072,9 +2122,11 @@
         <v>-1533.650367820393</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10580</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2109,9 +2161,11 @@
         <v>-1650.678367820393</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10560</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2146,9 +2200,11 @@
         <v>-1631.105267820393</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10420</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2183,9 +2239,11 @@
         <v>-1671.428767820393</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10520</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2220,9 +2278,11 @@
         <v>-1739.451767820393</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10510</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2257,7 +2317,7 @@
         <v>-1739.451767820393</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>10490</v>
@@ -2296,7 +2356,7 @@
         <v>-1727.173467820393</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>10490</v>
@@ -2335,7 +2395,7 @@
         <v>-1842.722567820393</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>10540</v>
@@ -2374,9 +2434,11 @@
         <v>-1906.232867820393</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10500</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2411,7 +2473,7 @@
         <v>-1905.296067820393</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>10490</v>
@@ -2450,9 +2512,11 @@
         <v>-1905.296067820393</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10540</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2487,9 +2551,11 @@
         <v>-1937.429067820393</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10540</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2524,7 +2590,7 @@
         <v>-2101.461567820393</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>10510</v>
@@ -2563,7 +2629,7 @@
         <v>-2101.093367820393</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>10490</v>
@@ -2602,7 +2668,7 @@
         <v>-1916.522967820393</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>10510</v>
@@ -2641,7 +2707,7 @@
         <v>-1906.308967820393</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>10520</v>
@@ -2680,7 +2746,7 @@
         <v>-1906.308967820393</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>10560</v>
@@ -2719,7 +2785,7 @@
         <v>-1906.308967820393</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>10560</v>
@@ -2758,7 +2824,7 @@
         <v>-1906.308967820393</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>10560</v>
@@ -2797,7 +2863,7 @@
         <v>-1877.926767820393</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>10560</v>
@@ -2836,7 +2902,7 @@
         <v>-1877.926767820393</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>10570</v>
@@ -2875,7 +2941,7 @@
         <v>-1877.926767820393</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>10570</v>
@@ -2914,7 +2980,7 @@
         <v>-1952.959867820393</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>10570</v>
@@ -2953,7 +3019,7 @@
         <v>-1735.247167820393</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>10530</v>
@@ -2992,7 +3058,7 @@
         <v>-1735.247167820393</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>10540</v>
@@ -3031,7 +3097,7 @@
         <v>-1795.400967820393</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>10540</v>
@@ -3070,7 +3136,7 @@
         <v>-1795.400967820393</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>10510</v>
@@ -3109,7 +3175,7 @@
         <v>-1753.630967820393</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>10510</v>
@@ -3148,7 +3214,7 @@
         <v>-1738.499267820393</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>10550</v>
@@ -3187,7 +3253,7 @@
         <v>-1718.480267820393</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>10560</v>
@@ -3226,9 +3292,11 @@
         <v>-1808.366567820393</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10570</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3263,9 +3331,11 @@
         <v>-1775.537567820393</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10550</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3300,7 +3370,7 @@
         <v>-1775.537567820393</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>10570</v>
@@ -3339,9 +3409,11 @@
         <v>-1703.469867820393</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10570</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3376,9 +3448,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>10620</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3413,9 +3487,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10670</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3450,9 +3526,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10670</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3487,9 +3565,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10670</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3524,9 +3604,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10670</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3561,9 +3643,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10670</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3598,9 +3682,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10670</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3635,9 +3721,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10670</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3672,9 +3760,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10670</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3709,9 +3799,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10670</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3746,9 +3838,11 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10670</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3783,9 +3877,11 @@
         <v>-1511.761067820393</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10670</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3820,9 +3916,11 @@
         <v>-1417.573467820393</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10680</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3857,9 +3955,11 @@
         <v>-1261.799267820393</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10690</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3894,9 +3994,11 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10710</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3931,9 +4033,11 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10700</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3968,9 +4072,11 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10700</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4005,9 +4111,11 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10700</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4042,9 +4150,11 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10700</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4079,9 +4189,11 @@
         <v>-1199.414667820393</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10700</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4116,9 +4228,11 @@
         <v>-1224.976467820393</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10710</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4153,9 +4267,11 @@
         <v>-1192.976467820393</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10680</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4190,9 +4306,11 @@
         <v>-1202.976467820393</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10700</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4227,9 +4345,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10680</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4264,9 +4384,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10700</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4301,9 +4423,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10700</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4338,9 +4462,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10700</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4375,9 +4501,11 @@
         <v>-1181.790167820393</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10700</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4412,9 +4540,11 @@
         <v>-1187.581967820393</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10710</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4449,9 +4579,11 @@
         <v>-1250.808067820393</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10700</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4486,9 +4618,11 @@
         <v>-1223.610067820393</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10640</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4523,9 +4657,11 @@
         <v>-1223.610067820393</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10670</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4560,9 +4696,11 @@
         <v>-1128.324667820393</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10670</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4597,9 +4735,11 @@
         <v>-940.8619678203927</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10710</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4634,9 +4774,11 @@
         <v>-941.8619678203927</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10720</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4671,9 +4813,11 @@
         <v>-941.8619678203927</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10710</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4708,9 +4852,11 @@
         <v>-930.8619678203927</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10710</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4745,9 +4891,11 @@
         <v>-1165.966667820393</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10720</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4782,9 +4930,11 @@
         <v>-1155.606967820393</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10710</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4819,9 +4969,11 @@
         <v>-1194.876167820393</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10720</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4856,9 +5008,11 @@
         <v>-1194.876167820393</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10710</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4893,9 +5047,11 @@
         <v>-1189.924767820393</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>10710</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4930,9 +5086,11 @@
         <v>-1189.924767820393</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10720</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4967,9 +5125,11 @@
         <v>-989.1663678203929</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10720</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5004,9 +5164,11 @@
         <v>-989.1663678203929</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>10750</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5300,9 +5462,11 @@
         <v>-1279.991767820393</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10690</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5337,9 +5501,11 @@
         <v>-1279.991767820393</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10690</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5374,9 +5540,11 @@
         <v>-1282.119267820393</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10690</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5448,7 +5616,7 @@
         <v>-1328.008267820393</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>10660</v>
@@ -5487,9 +5655,11 @@
         <v>-1270.642567820393</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10640</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5524,9 +5694,11 @@
         <v>-1270.642667820393</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>10720</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5561,9 +5733,11 @@
         <v>-1308.292267820393</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10710</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5894,9 +6068,11 @@
         <v>-1689.096267820393</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>10640</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5931,9 +6107,11 @@
         <v>-1688.918767820393</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10620</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5968,9 +6146,11 @@
         <v>-1688.918767820393</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10650</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6116,9 +6296,11 @@
         <v>-1713.78245940131</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10620</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6190,9 +6372,11 @@
         <v>-1694.68985940131</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10630</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6412,9 +6596,11 @@
         <v>-1902.11155940131</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10660</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6486,9 +6672,11 @@
         <v>-1900.91455940131</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>10660</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6745,9 +6933,11 @@
         <v>-1892.39165940131</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>10650</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -7078,9 +7268,11 @@
         <v>-1728.97675940131</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>10610</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7115,9 +7307,11 @@
         <v>-1705.58895940131</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>10620</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7152,9 +7346,11 @@
         <v>-1677.16345940131</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>10650</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7189,9 +7385,11 @@
         <v>-1653.91945940131</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>10670</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7226,9 +7424,11 @@
         <v>-1738.12345940131</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>10680</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7263,9 +7463,11 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>10640</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7300,9 +7502,11 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>10670</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7337,9 +7541,11 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10670</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7374,9 +7580,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>10670</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7411,9 +7619,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>10680</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7448,9 +7658,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>10680</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7485,9 +7697,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10680</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7522,9 +7736,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10680</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7559,9 +7775,11 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>10680</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7633,9 +7851,11 @@
         <v>-1562.26695940131</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>10680</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7670,9 +7890,11 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>10640</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7707,9 +7929,11 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>10680</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7744,9 +7968,11 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>10680</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7781,9 +8007,11 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>10690</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -10556,16 +10784,18 @@
         <v>2603.150124308338</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -10591,11 +10821,15 @@
         <v>2787.278124308339</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10624,11 +10858,15 @@
         <v>3357.170841699643</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +10895,15 @@
         <v>2806.691941699643</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10690,11 +10932,15 @@
         <v>3343.330524308339</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10723,11 +10969,15 @@
         <v>3506.769424308339</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +11006,15 @@
         <v>4541.936024308339</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10789,11 +11043,15 @@
         <v>6317.582124308339</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10822,11 +11080,15 @@
         <v>7571.994847430209</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10855,11 +11117,15 @@
         <v>8873.429115549157</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10888,11 +11154,15 @@
         <v>8077.494215549157</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10921,11 +11191,15 @@
         <v>8807.944712050108</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10954,11 +11228,15 @@
         <v>8342.421812050108</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +11265,15 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +11306,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11057,7 +11343,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11090,7 +11380,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11123,7 +11417,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11156,7 +11454,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +11491,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11222,7 +11528,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11565,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +11602,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +11639,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +11672,15 @@
         <v>3410.398775749934</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +11713,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +11750,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11449,11 +11783,15 @@
         <v>4037.393199395678</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11482,14 +11820,16 @@
         <v>4117.423699395677</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -11515,7 +11855,7 @@
         <v>4437.720299395677</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11548,7 +11888,7 @@
         <v>4437.720299395677</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11581,7 +11921,7 @@
         <v>3505.028799395677</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11614,7 +11954,7 @@
         <v>2864.622399395677</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11647,7 +11987,7 @@
         <v>2565.449799395677</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11680,7 +12020,7 @@
         <v>2270.276099395678</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11713,7 +12053,7 @@
         <v>3061.877899395678</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11746,7 +12086,7 @@
         <v>3010.378599395678</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11779,7 +12119,7 @@
         <v>3010.378599395678</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11812,7 +12152,7 @@
         <v>2790.988099395678</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11845,7 +12185,7 @@
         <v>2630.552199395678</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11977,7 +12317,7 @@
         <v>2302.494999395678</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12076,7 +12416,7 @@
         <v>1947.880299395678</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12109,7 +12449,7 @@
         <v>1947.880299395678</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12142,7 +12482,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12175,7 +12515,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12208,7 +12548,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12241,7 +12581,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12274,7 +12614,7 @@
         <v>2392.377099395678</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12307,7 +12647,7 @@
         <v>2340.080799395678</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12340,7 +12680,7 @@
         <v>2246.635976123587</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12373,7 +12713,7 @@
         <v>2246.635976123587</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12406,7 +12746,7 @@
         <v>1951.555276123587</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12439,7 +12779,7 @@
         <v>1809.534576123587</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12472,7 +12812,7 @@
         <v>1750.286376123587</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -18951,6 +19291,6 @@
       <c r="M527" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest REP.xlsx
+++ b/BackTest/2019-11-02 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-616.2346</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-616.2346</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-531.1182</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-509.1182</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-1503.3166</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-1461.6344</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-1461.6344</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-1431.3661</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-1475.366</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-1458.767</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-1458.767</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-1458.767</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-1458.767</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-1152.143</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-1150.143</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-1154.143</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-1153.6849</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-1153.6849</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-1153.6849</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-1148.6849</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-1148.6849</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-1123.835</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-1118.835</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-1117.835</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-1113.156467820393</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-1231.801867820393</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-1341.526867820393</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-1434.072267820393</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-1240.390567820393</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-1241.567667820393</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-1138.489067820393</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-1050.347067820393</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>-950.0077678203928</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>-869.0077678203928</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>-784.1672678203928</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>-784.1672678203928</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1771,11 @@
         <v>-1107.027267820393</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1804,11 @@
         <v>-1197.969667820393</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1837,11 @@
         <v>-1316.099667820393</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1870,11 @@
         <v>-1533.650367820393</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +1903,11 @@
         <v>-1650.678367820393</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2205,12 +1941,10 @@
       <c r="I47" t="n">
         <v>10420</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="n">
+        <v>10420</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2244,10 +1978,12 @@
       <c r="I48" t="n">
         <v>10520</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>10420</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2283,10 +2019,12 @@
       <c r="I49" t="n">
         <v>10510</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>10420</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2322,12 +2060,10 @@
       <c r="I50" t="n">
         <v>10490</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2361,10 +2097,12 @@
       <c r="I51" t="n">
         <v>10490</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10490</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2400,10 +2138,12 @@
       <c r="I52" t="n">
         <v>10540</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10490</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2439,10 +2179,12 @@
       <c r="I53" t="n">
         <v>10500</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10490</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2478,7 +2220,9 @@
       <c r="I54" t="n">
         <v>10490</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10490</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2517,7 +2261,9 @@
       <c r="I55" t="n">
         <v>10540</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10490</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2556,7 +2302,9 @@
       <c r="I56" t="n">
         <v>10540</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>10490</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2595,7 +2343,9 @@
       <c r="I57" t="n">
         <v>10510</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>10490</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,7 +2384,9 @@
       <c r="I58" t="n">
         <v>10490</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>10490</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,7 +2425,9 @@
       <c r="I59" t="n">
         <v>10510</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>10490</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,7 +2466,9 @@
       <c r="I60" t="n">
         <v>10520</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>10490</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,7 +2507,9 @@
       <c r="I61" t="n">
         <v>10560</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>10490</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,7 +2548,9 @@
       <c r="I62" t="n">
         <v>10560</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>10490</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2589,9 @@
       <c r="I63" t="n">
         <v>10560</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>10490</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,7 +2630,9 @@
       <c r="I64" t="n">
         <v>10560</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>10490</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,7 +2671,9 @@
       <c r="I65" t="n">
         <v>10570</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10490</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,7 +2712,9 @@
       <c r="I66" t="n">
         <v>10570</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10490</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,7 +2753,9 @@
       <c r="I67" t="n">
         <v>10570</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10490</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3024,7 +2794,9 @@
       <c r="I68" t="n">
         <v>10530</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10490</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,7 +2835,9 @@
       <c r="I69" t="n">
         <v>10540</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10490</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,7 +2876,9 @@
       <c r="I70" t="n">
         <v>10540</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10490</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3141,7 +2917,9 @@
       <c r="I71" t="n">
         <v>10510</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10490</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3180,7 +2958,9 @@
       <c r="I72" t="n">
         <v>10510</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10490</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,7 +2999,9 @@
       <c r="I73" t="n">
         <v>10550</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10490</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,7 +3040,9 @@
       <c r="I74" t="n">
         <v>10560</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10490</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,7 +3081,9 @@
       <c r="I75" t="n">
         <v>10570</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10490</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,7 +3122,9 @@
       <c r="I76" t="n">
         <v>10550</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10490</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,7 +3163,9 @@
       <c r="I77" t="n">
         <v>10570</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10490</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,7 +3204,9 @@
       <c r="I78" t="n">
         <v>10570</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10490</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,7 +3245,9 @@
       <c r="I79" t="n">
         <v>10620</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10490</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,7 +3286,9 @@
       <c r="I80" t="n">
         <v>10670</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10490</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,7 +3327,9 @@
       <c r="I81" t="n">
         <v>10670</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10490</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,7 +3368,9 @@
       <c r="I82" t="n">
         <v>10670</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10490</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,12 +3404,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10490</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,12 +3443,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10490</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,12 +3482,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10490</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,12 +3521,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10490</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,12 +3560,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10490</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,12 +3599,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10490</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,12 +3638,12 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10490</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,12 +3677,12 @@
         <v>-1511.761067820393</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10490</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,12 +3716,12 @@
         <v>-1417.573467820393</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10680</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10490</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,12 +3755,12 @@
         <v>-1261.799267820393</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10690</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10490</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,12 +3794,12 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10490</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,12 +3833,12 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10490</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,12 +3872,12 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10490</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,12 +3911,12 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10490</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,12 +3950,12 @@
         <v>-1262.799267820393</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10490</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,12 +3989,12 @@
         <v>-1199.414667820393</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10490</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,12 +4028,12 @@
         <v>-1224.976467820393</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10490</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,12 +4067,12 @@
         <v>-1192.976467820393</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10680</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10490</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,12 +4106,12 @@
         <v>-1202.976467820393</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10490</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,12 +4145,12 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>10680</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10490</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,12 +4184,12 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10490</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,12 +4223,12 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10490</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,12 +4262,12 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10490</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,12 +4301,12 @@
         <v>-1181.790167820393</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10490</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,12 +4340,12 @@
         <v>-1187.581967820393</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10490</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,12 +4379,12 @@
         <v>-1250.808067820393</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10700</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10490</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,12 +4418,12 @@
         <v>-1223.610067820393</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10640</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10490</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,12 +4457,12 @@
         <v>-1223.610067820393</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10490</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,12 +4496,12 @@
         <v>-1128.324667820393</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10490</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,12 +4535,12 @@
         <v>-940.8619678203927</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10490</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,12 +4574,12 @@
         <v>-941.8619678203927</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10490</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,12 +4613,12 @@
         <v>-941.8619678203927</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10490</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,12 +4652,12 @@
         <v>-930.8619678203927</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10490</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,12 +4691,12 @@
         <v>-1165.966667820393</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10490</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,12 +4730,12 @@
         <v>-1155.606967820393</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10490</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,12 +4769,12 @@
         <v>-1194.876167820393</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10490</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,12 +4808,12 @@
         <v>-1194.876167820393</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10490</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,12 +4847,12 @@
         <v>-1189.924767820393</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10490</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,12 +4886,12 @@
         <v>-1189.924767820393</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10490</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,12 +4925,12 @@
         <v>-989.1663678203929</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10490</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,12 +4964,12 @@
         <v>-989.1663678203929</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>10750</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10490</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10490</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5243,7 +5045,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10490</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5280,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10490</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10490</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5354,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10490</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5391,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10490</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,7 +5240,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10490</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,12 +5276,12 @@
         <v>-1279.991767820393</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>10690</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10490</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,12 +5315,12 @@
         <v>-1279.991767820393</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>10690</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10490</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,12 +5354,12 @@
         <v>-1282.119267820393</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10690</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10490</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,7 +5396,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10490</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,12 +5432,12 @@
         <v>-1328.008267820393</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>10660</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10490</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,12 +5471,12 @@
         <v>-1270.642567820393</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10640</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10490</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,12 +5510,12 @@
         <v>-1270.642667820393</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>10720</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10490</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5733,12 +5549,12 @@
         <v>-1308.292267820393</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10490</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10490</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +5630,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10490</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,7 +5669,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10490</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,7 +5708,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10490</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,7 +5747,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10490</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,7 +5786,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10490</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +5825,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10490</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,7 +5864,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10490</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6068,12 +5900,12 @@
         <v>-1689.096267820393</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>10640</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10490</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,12 +5939,12 @@
         <v>-1688.918767820393</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>10620</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10490</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6146,12 +5978,12 @@
         <v>-1688.918767820393</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>10650</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10490</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,7 +6020,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10490</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6225,7 +6059,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10490</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,7 +6098,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10490</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6296,12 +6134,12 @@
         <v>-1713.78245940131</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>10620</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10490</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6176,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10490</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,12 +6212,12 @@
         <v>-1694.68985940131</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>10630</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10490</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,7 +6254,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10490</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,7 +6293,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10490</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6488,7 +6332,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10490</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6525,7 +6371,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10490</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,7 +6410,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10490</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,12 +6446,12 @@
         <v>-1902.11155940131</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>10660</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10490</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,7 +6488,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10490</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,12 +6524,12 @@
         <v>-1900.91455940131</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>10660</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10490</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,7 +6566,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10490</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,7 +6605,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10490</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,7 +6644,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10490</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6825,7 +6683,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10490</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6862,7 +6722,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10490</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6899,7 +6761,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10490</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,12 +6797,12 @@
         <v>-1892.39165940131</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>10650</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10490</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6975,7 +6839,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10490</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,7 +6878,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10490</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,7 +6917,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10490</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7086,7 +6956,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10490</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,7 +6995,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10490</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7160,7 +7034,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10490</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,7 +7073,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10490</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7234,7 +7112,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10490</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,7 +7153,9 @@
       <c r="I179" t="n">
         <v>10610</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10490</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,7 +7194,9 @@
       <c r="I180" t="n">
         <v>10620</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10490</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,7 +7235,9 @@
       <c r="I181" t="n">
         <v>10650</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10490</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,7 +7276,9 @@
       <c r="I182" t="n">
         <v>10670</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10490</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,7 +7317,9 @@
       <c r="I183" t="n">
         <v>10680</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10490</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,7 +7358,9 @@
       <c r="I184" t="n">
         <v>10640</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10490</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,7 +7399,9 @@
       <c r="I185" t="n">
         <v>10670</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10490</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7541,12 +7435,12 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10490</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,12 +7474,12 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10490</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,7 +7518,9 @@
       <c r="I188" t="n">
         <v>10680</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10490</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,7 +7559,9 @@
       <c r="I189" t="n">
         <v>10680</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10490</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,12 +7595,12 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10680</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10490</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,12 +7634,12 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>10680</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10490</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,7 +7678,9 @@
       <c r="I192" t="n">
         <v>10680</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10490</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,10 +7714,14 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>10680</v>
+      </c>
+      <c r="J193" t="n">
+        <v>10490</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7856,7 +7760,9 @@
       <c r="I194" t="n">
         <v>10680</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10490</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,7 +7801,9 @@
       <c r="I195" t="n">
         <v>10640</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10490</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7934,7 +7842,9 @@
       <c r="I196" t="n">
         <v>10680</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10490</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7973,7 +7883,9 @@
       <c r="I197" t="n">
         <v>10680</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10490</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,7 +7924,9 @@
       <c r="I198" t="n">
         <v>10690</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10490</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,10 +7960,14 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>10690</v>
+      </c>
+      <c r="J199" t="n">
+        <v>10490</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,10 +8001,14 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J200" t="n">
+        <v>10490</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,10 +8042,14 @@
         <v>-1349.46235940131</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J201" t="n">
+        <v>10490</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,7 +8086,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10490</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,7 +8125,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>10490</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,7 +8164,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10490</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,7 +8203,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10490</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,7 +8242,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10490</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8345,7 +8281,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>10490</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,7 +8320,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>10490</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8419,7 +8359,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10490</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8456,7 +8398,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10490</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,7 +8437,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10490</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,7 +8476,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10490</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,7 +8515,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>10490</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8604,7 +8554,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10490</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8641,7 +8593,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10490</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,7 +8632,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10490</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,7 +8671,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10490</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,7 +8710,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10490</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,7 +8749,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10490</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,7 +8788,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10490</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,7 +8827,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10490</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,7 +8866,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10490</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8937,7 +8905,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10490</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8974,7 +8944,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10490</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,7 +8983,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10490</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,7 +9022,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10490</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9085,7 +9061,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>10490</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9122,7 +9100,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>10490</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9159,7 +9139,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>10490</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9196,7 +9178,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>10490</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,7 +9217,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>10490</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9270,7 +9256,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>10490</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,7 +9295,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>10490</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9344,7 +9334,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>10490</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,7 +9373,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10490</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,7 +9412,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10490</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,7 +9451,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>10490</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,7 +9490,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>10490</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9529,7 +9529,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>10490</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9566,7 +9568,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>10490</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,7 +9607,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>10490</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,17 +9643,19 @@
         <v>299.6371239212853</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>10490</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1</v>
+        <v>1.046477597712107</v>
       </c>
       <c r="M242" t="inlineStr"/>
     </row>
@@ -9674,15 +9682,11 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9711,15 +9715,11 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9748,15 +9748,11 @@
         <v>-196.6378160241196</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9785,15 +9781,11 @@
         <v>-59.90591602411959</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9822,15 +9814,11 @@
         <v>-97.8119160241196</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9863,11 +9851,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9896,15 +9880,11 @@
         <v>628.7111839758804</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9933,15 +9913,11 @@
         <v>619.3136839758804</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9970,15 +9946,11 @@
         <v>603.8707839758804</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10007,15 +9979,11 @@
         <v>607.0647839758803</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10044,15 +10012,11 @@
         <v>592.6786839758803</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10081,15 +10045,11 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10118,15 +10078,11 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10155,15 +10111,11 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10192,15 +10144,11 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10229,15 +10177,11 @@
         <v>581.5078839758803</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10266,15 +10210,11 @@
         <v>621.5078839758803</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10303,15 +10243,11 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10340,15 +10276,11 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10377,15 +10309,11 @@
         <v>627.0553839758803</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10414,15 +10342,11 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10451,15 +10375,11 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10488,15 +10408,11 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10525,15 +10441,11 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10562,15 +10474,11 @@
         <v>1047.79368397588</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10599,15 +10507,11 @@
         <v>1000.28988397588</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10636,15 +10540,11 @@
         <v>1632.12138397588</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10673,15 +10573,11 @@
         <v>1896.07818397588</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10710,15 +10606,11 @@
         <v>2687.23888397588</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10747,15 +10639,11 @@
         <v>2025.982324308339</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10784,15 +10672,11 @@
         <v>2603.150124308338</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10821,15 +10705,11 @@
         <v>2787.278124308339</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10858,15 +10738,11 @@
         <v>3357.170841699643</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10895,15 +10771,11 @@
         <v>2806.691941699643</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10932,15 +10804,11 @@
         <v>3343.330524308339</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +10841,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +10874,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +10907,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +10940,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11121,11 +10973,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +11006,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11195,11 +11039,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11232,11 +11072,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11269,11 +11105,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +11138,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +11171,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11380,11 +11204,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +11237,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11454,11 +11270,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11491,11 +11303,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11528,11 +11336,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11565,11 +11369,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11602,11 +11402,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11639,11 +11435,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +11468,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11713,11 +11501,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11750,11 +11534,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +11567,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11820,16 +11596,14 @@
         <v>4117.423699395677</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -11855,7 +11629,7 @@
         <v>4437.720299395677</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11888,7 +11662,7 @@
         <v>4437.720299395677</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11921,7 +11695,7 @@
         <v>3505.028799395677</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11954,7 +11728,7 @@
         <v>2864.622399395677</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11987,7 +11761,7 @@
         <v>2565.449799395677</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12020,7 +11794,7 @@
         <v>2270.276099395678</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12053,7 +11827,7 @@
         <v>3061.877899395678</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12086,7 +11860,7 @@
         <v>3010.378599395678</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12119,7 +11893,7 @@
         <v>3010.378599395678</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12152,7 +11926,7 @@
         <v>2790.988099395678</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12416,7 +12190,7 @@
         <v>1947.880299395678</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12449,7 +12223,7 @@
         <v>1947.880299395678</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12482,7 +12256,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12515,7 +12289,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12548,7 +12322,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12581,7 +12355,7 @@
         <v>1997.947799395678</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12614,7 +12388,7 @@
         <v>2392.377099395678</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12647,7 +12421,7 @@
         <v>2340.080799395678</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12680,7 +12454,7 @@
         <v>2246.635976123587</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12713,7 +12487,7 @@
         <v>2246.635976123587</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12746,7 +12520,7 @@
         <v>1951.555276123587</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12779,7 +12553,7 @@
         <v>1809.534576123587</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12812,7 +12586,7 @@
         <v>1750.286376123587</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -15485,7 +15259,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15518,7 +15292,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16178,7 +15952,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16211,7 +15985,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16244,7 +16018,7 @@
         <v>565.0663288085925</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16277,7 +16051,7 @@
         <v>485.9740288085925</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16310,7 +16084,7 @@
         <v>83.2654288085925</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16343,7 +16117,7 @@
         <v>99.52752880859251</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16442,7 +16216,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16475,7 +16249,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16508,7 +16282,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16541,7 +16315,7 @@
         <v>1253.826128808592</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16574,7 +16348,7 @@
         <v>1487.365528808592</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -18917,7 +18691,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18950,7 +18724,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18983,7 +18757,7 @@
         <v>818.9040837702674</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19016,7 +18790,7 @@
         <v>892.0440613716784</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19049,7 +18823,7 @@
         <v>162.5371552870223</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19082,7 +18856,7 @@
         <v>38.28385528702231</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19291,6 +19065,6 @@
       <c r="M527" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest REP.xlsx
+++ b/BackTest/2019-11-02 BackTest REP.xlsx
@@ -3322,11 +3322,9 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>10490</v>
       </c>
@@ -3363,11 +3361,9 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>10490</v>
       </c>
@@ -4028,9 +4024,11 @@
         <v>-1224.976467820393</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10710</v>
+      </c>
       <c r="J99" t="n">
         <v>10490</v>
       </c>
@@ -4067,9 +4065,11 @@
         <v>-1192.976467820393</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10680</v>
+      </c>
       <c r="J100" t="n">
         <v>10490</v>
       </c>
@@ -4106,9 +4106,11 @@
         <v>-1202.976467820393</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10700</v>
+      </c>
       <c r="J101" t="n">
         <v>10490</v>
       </c>
@@ -4145,9 +4147,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10680</v>
+      </c>
       <c r="J102" t="n">
         <v>10490</v>
       </c>
@@ -4184,9 +4188,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10700</v>
+      </c>
       <c r="J103" t="n">
         <v>10490</v>
       </c>
@@ -4223,9 +4229,11 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10700</v>
+      </c>
       <c r="J104" t="n">
         <v>10490</v>
       </c>
@@ -7148,11 +7156,9 @@
         <v>-1728.97675940131</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>10610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>10490</v>
       </c>
@@ -7189,11 +7195,9 @@
         <v>-1705.58895940131</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>10620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>10490</v>
       </c>
@@ -7230,11 +7234,9 @@
         <v>-1677.16345940131</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>10650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>10490</v>
       </c>
@@ -7271,11 +7273,9 @@
         <v>-1653.91945940131</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>10490</v>
       </c>
@@ -7312,11 +7312,9 @@
         <v>-1738.12345940131</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>10490</v>
       </c>
@@ -7353,11 +7351,9 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>10490</v>
       </c>
@@ -7394,11 +7390,9 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>10670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>10490</v>
       </c>
@@ -7513,11 +7507,9 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>10490</v>
       </c>
@@ -7554,11 +7546,9 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>10490</v>
       </c>
@@ -7673,11 +7663,9 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>10490</v>
       </c>
@@ -7714,11 +7702,9 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>10490</v>
       </c>
@@ -7755,11 +7741,9 @@
         <v>-1562.26695940131</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>10490</v>
       </c>
@@ -7796,11 +7780,9 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>10640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>10490</v>
       </c>
@@ -7837,11 +7819,9 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>10490</v>
       </c>
@@ -7878,11 +7858,9 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>10490</v>
       </c>
@@ -7919,11 +7897,9 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>10490</v>
       </c>
@@ -7960,11 +7936,9 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>10690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>10490</v>
       </c>
@@ -8001,11 +7975,9 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>10490</v>
       </c>
@@ -8042,11 +8014,9 @@
         <v>-1349.46235940131</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>10490</v>
       </c>
@@ -9643,7 +9613,7 @@
         <v>299.6371239212853</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
@@ -9651,11 +9621,11 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.046477597712107</v>
+        <v>1</v>
       </c>
       <c r="M242" t="inlineStr"/>
     </row>
@@ -9682,11 +9652,17 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9715,11 +9691,17 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9748,11 +9730,17 @@
         <v>-196.6378160241196</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9781,11 +9769,17 @@
         <v>-59.90591602411959</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9814,11 +9808,17 @@
         <v>-97.8119160241196</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +9850,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +9886,17 @@
         <v>628.7111839758804</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9913,11 +9925,17 @@
         <v>619.3136839758804</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9946,11 +9964,17 @@
         <v>603.8707839758804</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +10003,17 @@
         <v>607.0647839758803</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +10042,17 @@
         <v>592.6786839758803</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +10081,17 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10078,11 +10120,17 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10111,11 +10159,17 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10198,17 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +10237,17 @@
         <v>581.5078839758803</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10276,17 @@
         <v>621.5078839758803</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +10315,17 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +10354,17 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +10393,17 @@
         <v>627.0553839758803</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +10432,17 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +10471,17 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +10510,17 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +10549,17 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10474,11 +10588,17 @@
         <v>1047.79368397588</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10507,11 +10627,17 @@
         <v>1000.28988397588</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10540,11 +10666,17 @@
         <v>1632.12138397588</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +10705,17 @@
         <v>1896.07818397588</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10744,17 @@
         <v>2687.23888397588</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +10783,17 @@
         <v>2025.982324308339</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10672,11 +10822,17 @@
         <v>2603.150124308338</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +10861,17 @@
         <v>2787.278124308339</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +10900,17 @@
         <v>3357.170841699643</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10939,17 @@
         <v>2806.691941699643</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +10978,17 @@
         <v>3343.330524308339</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10840,8 +11020,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10873,8 +11059,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10906,8 +11098,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10936,15 +11134,23 @@
         <v>7571.994847430209</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>10490</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>1.133226882745472</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1.027831094049904</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10969,7 +11175,7 @@
         <v>8873.429115549157</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11002,7 +11208,7 @@
         <v>8077.494215549157</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11035,7 +11241,7 @@
         <v>8807.944712050108</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11068,7 +11274,7 @@
         <v>8342.421812050108</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11101,7 +11307,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11134,7 +11340,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11167,7 +11373,7 @@
         <v>5776.512712050108</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11200,7 +11406,7 @@
         <v>5652.336512050108</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11233,7 +11439,7 @@
         <v>5378.794112050108</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11266,7 +11472,7 @@
         <v>4344.124312050109</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11299,7 +11505,7 @@
         <v>3413.683012050109</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11695,7 +11901,7 @@
         <v>3505.028799395677</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11728,7 +11934,7 @@
         <v>2864.622399395677</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -15259,7 +15465,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15292,7 +15498,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15952,7 +16158,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15985,7 +16191,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16018,7 +16224,7 @@
         <v>565.0663288085925</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16051,7 +16257,7 @@
         <v>485.9740288085925</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16084,7 +16290,7 @@
         <v>83.2654288085925</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16117,7 +16323,7 @@
         <v>99.52752880859251</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16216,7 +16422,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16249,7 +16455,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16282,7 +16488,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16315,7 +16521,7 @@
         <v>1253.826128808592</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16348,7 +16554,7 @@
         <v>1487.365528808592</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -18691,7 +18897,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18724,7 +18930,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18757,7 +18963,7 @@
         <v>818.9040837702674</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18790,7 +18996,7 @@
         <v>892.0440613716784</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18823,7 +19029,7 @@
         <v>162.5371552870223</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18856,7 +19062,7 @@
         <v>38.28385528702231</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
